--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,197 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43770</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43679</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43588</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43497</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43406</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43315</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43224</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43133</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43042</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42860</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24032000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22844000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23370000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21908000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23841000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22482000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22942000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21356000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21963000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19556000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19521000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18000000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16348000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15718000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16044000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15111000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16732000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16539000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16819000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15478000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16071000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14336000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14553000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13543000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7684000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7126000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7326000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6797000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7109000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5943000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6123000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5878000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5892000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5220000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4968000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4457000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,49 +871,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1262000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1229000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1176000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1150000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1140000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1175000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1087000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2157000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2118000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2178000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2248000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +957,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,11 +974,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>52000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -967,23 +986,26 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>42000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1023,8 +1045,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1037,90 +1062,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23315000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22008000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22851000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21358000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23510000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22838000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22955000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21509000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22032000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19966000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20186000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19272000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E18" s="3">
         <v>836000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>519000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>550000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>331000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-356000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-153000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-69000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-410000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-665000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,213 +1168,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>62000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>52000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>167000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>126000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-75000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>53000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2256000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2307000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2079000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2172000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2323000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1578000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2085000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1887000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1652000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1530000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>965000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E22" s="3">
         <v>654000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>692000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>699000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>658000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>612000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>622000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>596000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>604000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>607000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>598000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>597000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E23" s="3">
         <v>159000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-111000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-143000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-275000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-995000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-623000</v>
       </c>
       <c r="K23" s="3">
         <v>-623000</v>
       </c>
       <c r="L23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-325000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-393000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-472000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-85000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-490000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-241000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-471000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-641000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,90 +1430,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E26" s="3">
         <v>552000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4232000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>329000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-287000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-895000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-461000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-538000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-133000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-851000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-739000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E27" s="3">
         <v>499000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3416000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>293000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-299000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-876000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-499000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-636000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-846000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-732000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1562,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1519,11 +1579,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1531,12 +1591,12 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>300000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1544,10 +1604,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1628,90 +1694,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>23000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-62000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-52000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-167000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-126000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>75000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-53000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E33" s="3">
         <v>499000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3416000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>293000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-299000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-876000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-499000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-636000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-846000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-732000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1751,95 +1826,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E35" s="3">
         <v>499000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3416000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>293000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-299000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-876000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-499000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-636000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-846000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-732000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43770</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43679</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43588</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43497</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43406</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43315</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43224</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43133</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43042</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42860</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1855,8 +1939,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,49 +1957,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9302000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8555000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9193000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9040000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9676000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15152000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15312000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15324000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13942000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11706000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9213000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9554000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1927,322 +2016,346 @@
       <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>2322000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2504000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2402000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2187000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2008000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2015000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1620000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17379000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16036000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16059000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14794000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16769000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15247000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15341000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14523000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15640000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12832000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13189000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12089000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3281000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3257000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3135000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3360000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3649000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3793000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3642000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2933000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2678000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2582000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2594000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2466000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6906000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6924000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6929000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6461000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6044000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6445000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6326000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6049000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5881000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5397000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5194000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4655000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36868000</v>
+      </c>
+      <c r="E46" s="3">
         <v>34772000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35316000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33655000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36138000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42959000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43125000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41231000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40328000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34525000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32205000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30384000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5712000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5303000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5118000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4913000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5229000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6918000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7679000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7742000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7887000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7590000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7221000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6513000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7835000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7539000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7198000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7032000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5259000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5228000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5240000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5303000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5390000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5378000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5400000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5438000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>59798000</v>
+      </c>
+      <c r="E49" s="3">
         <v>60862000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>59717000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>60963000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>62359000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>63438000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64712000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>66393000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>68185000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>69176000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>70987000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>72213000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2395,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2323,49 +2439,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8648000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8338000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8171000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3329000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2835000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2698000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2625000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2548000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2403000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1725000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1681000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1492000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2405,49 +2527,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118861000</v>
+      </c>
+      <c r="E54" s="3">
         <v>116814000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115520000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109892000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>111820000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121241000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123381000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123217000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>124193000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118394000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117494000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116040000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2591,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2480,254 +2609,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20065000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19443000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19411000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18097000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19213000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19748000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20853000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18534000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18334000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16711000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16916000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15064000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7737000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7664000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5949000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4884000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4320000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8150000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9144000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7133000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7873000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6235000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7686000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4842000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24654000</v>
+      </c>
+      <c r="E59" s="3">
         <v>21948000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21660000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20498000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21439000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19685000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19181000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18447000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19632000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17796000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17524000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16730000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52456000</v>
+      </c>
+      <c r="E60" s="3">
         <v>49055000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47020000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43479000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44972000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47583000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49178000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44114000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45839000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40742000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42126000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36636000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44319000</v>
+      </c>
+      <c r="E61" s="3">
         <v>44727000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45973000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48640000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>49201000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>40507000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40414000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44770000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43998000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45416000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41374000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44948000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18302000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18221000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18408000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17660000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17393000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16631000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16522000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16509000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16487000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16648000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16725000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16765000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2959,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,49 +3003,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>119806000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117684000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>116945000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114582000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116389000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111554000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112762000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111888000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112090000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>108513000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106214000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104207000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,8 +3067,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2948,8 +3109,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2989,49 +3153,55 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E70" s="3">
         <v>934000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>1024000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>1774000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1196000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2095000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>2056000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>844000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>384000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>362000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>333000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>301000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,49 +3241,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16891000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3153,8 +3329,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3194,8 +3373,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3235,49 +3417,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1574000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7592000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8563000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10485000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11719000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9519000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10947000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11532000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,95 +3505,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43770</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43679</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43588</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43497</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43406</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43315</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43224</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43133</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43042</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42860</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E81" s="3">
         <v>499000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3416000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>293000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-299000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-876000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-499000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-636000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-846000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-732000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,49 +3618,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1494000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1498000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1616000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1940000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1961000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1931000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1914000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2143000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2137000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2142000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2212000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3704,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,8 +3748,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3792,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +3836,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,49 +3880,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3508000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1821000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3280000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>682000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2366000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>833000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2633000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1159000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3099000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1639000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1820000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>285000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,8 +3944,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3737,37 +3957,40 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3000</v>
       </c>
       <c r="J91" s="3">
         <v>-3000</v>
       </c>
       <c r="K91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3807,8 +4030,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3848,49 +4074,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-704000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-825000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-458000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3610000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-149000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-885000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>51000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3906,8 +4138,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3947,8 +4180,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3988,8 +4224,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4029,8 +4268,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4070,127 +4312,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2004000</v>
+      </c>
+      <c r="E100" s="3">
         <v>322000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-719000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-857000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>543000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-122000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-888000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-187000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-38000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-36000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>73000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-46000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-130000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-86000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>128000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>54000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-594000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>226000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-531000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-129000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1467000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2220000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2540000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-357000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>143000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,209 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43770</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43679</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43588</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43497</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43406</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43315</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43224</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43133</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43042</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42860</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21897000</v>
+      </c>
+      <c r="E8" s="3">
         <v>24032000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22844000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23370000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21908000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23841000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22482000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22942000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21356000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21963000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19556000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19521000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18000000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15044000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16348000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15718000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16044000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15111000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16732000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16539000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16819000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15478000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16071000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14336000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14553000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13543000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6853000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7684000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7126000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7326000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6797000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7109000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5943000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6123000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5878000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5892000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5220000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4968000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4457000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,52 +884,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1325000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1262000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1229000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1176000</v>
       </c>
-      <c r="H12" s="3">
-        <v>1150000</v>
-      </c>
       <c r="I12" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="J12" s="3">
         <v>1140000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1175000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1087000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2157000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2118000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2178000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2248000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +976,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -977,8 +996,8 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>52000</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -989,23 +1008,26 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>42000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1070,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1088,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21195000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23315000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22008000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22851000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21358000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23510000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22838000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22955000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21509000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22032000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19966000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20186000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19272000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E18" s="3">
         <v>717000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>836000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>519000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>550000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>331000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-356000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-153000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-69000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-410000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-665000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1201,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>62000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>52000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>167000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>126000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-75000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>53000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2256000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2307000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2079000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2172000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2323000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1578000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2085000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1887000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1652000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1530000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>965000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E22" s="3">
         <v>630000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>654000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>692000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>699000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>658000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>612000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>622000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>596000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>604000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>607000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>598000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>597000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E23" s="3">
         <v>91000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>159000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-111000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-143000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-275000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-995000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-623000</v>
       </c>
       <c r="L23" s="3">
         <v>-623000</v>
       </c>
       <c r="M23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-325000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-393000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-472000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-85000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-490000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-241000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-471000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-641000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1481,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E26" s="3">
         <v>416000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>552000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4232000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>329000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-287000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-895000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-461000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-538000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-133000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-851000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-739000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E27" s="3">
         <v>408000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>499000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3416000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>293000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-299000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-876000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-499000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-636000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-846000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-732000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1622,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1582,11 +1642,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1594,12 +1654,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>300000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1607,10 +1667,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1716,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1763,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-62000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-52000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-167000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-126000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>75000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-53000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E33" s="3">
         <v>408000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>499000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3416000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>293000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-299000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-876000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-499000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-636000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-846000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-732000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1904,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E35" s="3">
         <v>408000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>499000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3416000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>293000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-299000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-876000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-499000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-636000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-846000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-732000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43770</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43679</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43588</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43497</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43406</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43315</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43224</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43133</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43042</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42860</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2024,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2043,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12229000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9302000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8555000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9193000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9040000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9676000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15152000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15312000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15324000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13942000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11706000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9213000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9554000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2019,343 +2108,367 @@
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>2322000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2504000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2402000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2187000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2008000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2015000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1620000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15549000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17379000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16036000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16059000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14794000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16769000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15247000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15341000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14523000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15640000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12832000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13189000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12089000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3616000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3281000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3257000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3135000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3360000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3649000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3793000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3642000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2933000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2678000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2582000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2594000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2466000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9537000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6906000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6924000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6929000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6461000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6044000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6445000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6326000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6049000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5881000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5397000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5194000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4655000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40931000</v>
+      </c>
+      <c r="E46" s="3">
         <v>36868000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34772000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35316000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33655000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36138000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42959000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43125000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41231000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40328000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34525000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32205000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30384000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5684000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5712000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5303000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5118000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4913000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5229000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6918000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7679000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7742000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7887000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7590000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7221000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6513000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7845000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7835000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7539000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7198000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7032000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5259000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5228000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5240000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5303000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5390000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5378000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5400000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5438000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57075000</v>
+      </c>
+      <c r="E49" s="3">
         <v>59798000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>60862000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>59717000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>60963000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>62359000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>63438000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>64712000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66393000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>68185000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>69176000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>70987000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>72213000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2511,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2558,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8701000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8648000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8338000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8171000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3329000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2835000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2698000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2625000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2548000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2403000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1725000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1681000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1492000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2652,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120236000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118861000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>116814000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>115520000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109892000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>111820000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121241000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123381000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123217000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>124193000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118394000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117494000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116040000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2720,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2739,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18432000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20065000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19443000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19411000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18097000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19213000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19748000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20853000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18534000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18334000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16711000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16916000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15064000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8375000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7737000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7664000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5949000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4884000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4320000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8150000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9144000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7133000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7873000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6235000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7686000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4842000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23204000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24654000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21948000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21660000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20498000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21439000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19685000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19181000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18447000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19632000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17796000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17524000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16730000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50011000</v>
+      </c>
+      <c r="E60" s="3">
         <v>52456000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49055000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47020000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43479000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44972000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47583000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49178000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44114000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45839000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40742000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42126000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36636000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48353000</v>
+      </c>
+      <c r="E61" s="3">
         <v>44319000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44727000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45973000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48640000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>49201000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40507000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40414000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44770000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43998000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45416000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41374000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44948000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18191000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18302000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18221000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18408000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17660000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17393000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16631000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16522000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16509000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16487000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16648000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16725000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16765000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3066,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3113,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3160,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121409000</v>
+      </c>
+      <c r="E66" s="3">
         <v>119806000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117684000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>116945000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>114582000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>116389000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111554000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112762000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111888000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112090000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>108513000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>106214000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104207000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3228,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3273,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,52 +3320,58 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E70" s="3">
         <v>629000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>934000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>1024000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1774000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>1196000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>2095000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2056000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>844000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>384000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>362000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>333000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>301000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3414,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16858000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3508,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3555,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3602,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1614000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7592000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8563000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10485000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11719000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9519000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10947000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11532000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3696,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43770</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43679</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43588</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43497</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43406</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43315</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43224</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43133</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43042</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42860</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E81" s="3">
         <v>408000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>499000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3416000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>293000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-299000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-876000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-499000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-636000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-846000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-732000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +3816,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1535000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1494000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1498000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1616000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1940000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1961000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1931000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1914000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2143000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2137000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2142000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2212000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +3908,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +3955,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4002,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4049,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4096,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-796000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3508000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1821000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3280000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>682000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2366000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>833000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2633000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1159000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3099000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1639000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1820000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>285000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,13 +4164,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-559000</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3960,37 +4180,40 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3000</v>
       </c>
       <c r="K91" s="3">
         <v>-3000</v>
       </c>
       <c r="L91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4256,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4303,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-485000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-704000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-825000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-458000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3610000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-885000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>51000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4371,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4183,8 +4416,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4463,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4510,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4557,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4264000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>322000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-719000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-857000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>543000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-122000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-888000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-187000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-38000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-36000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>73000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-46000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-130000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-86000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>128000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>54000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2847000</v>
+      </c>
+      <c r="E102" s="3">
         <v>810000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-594000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>226000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-531000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-129000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1467000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2220000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2540000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-357000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>143000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43952</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43770</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43679</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43588</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43497</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43406</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43315</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43224</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43133</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43042</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42860</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22733000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21897000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24032000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22844000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23370000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21908000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23841000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22482000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22942000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21356000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21963000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19556000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19521000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18000000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15577000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15044000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16348000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15718000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16044000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15111000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16732000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16539000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16819000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15478000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16071000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14336000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14553000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13543000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7156000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6853000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7684000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7126000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7326000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6797000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7109000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5943000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6123000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5878000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5892000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5220000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4968000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4457000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,55 +897,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1259000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1265000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1325000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1262000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1229000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1176000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1202000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1140000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1175000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1087000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2157000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2118000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2178000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2248000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +995,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,23 +1030,26 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>42000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1095,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21597000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21195000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23315000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22008000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22851000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21358000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23510000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22838000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22955000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21509000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22032000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19966000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20186000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19272000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="E18" s="3">
         <v>702000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>717000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>836000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>519000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>550000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>331000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-356000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-153000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-69000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-410000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-665000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,243 +1234,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E20" s="3">
         <v>106000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-23000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>62000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>52000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>167000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>126000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>50000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-75000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>53000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2124000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2256000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2307000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2079000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2172000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2323000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1578000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2085000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1887000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1652000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1530000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>965000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E22" s="3">
         <v>672000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>630000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>654000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>692000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>699000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>658000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>612000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>622000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>596000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>604000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>607000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>598000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>597000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E23" s="3">
         <v>136000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>91000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>159000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-111000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-143000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-275000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-995000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-623000</v>
       </c>
       <c r="M23" s="3">
         <v>-623000</v>
       </c>
       <c r="N23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-599000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-325000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-393000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-472000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-85000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-490000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-241000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-471000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-641000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E26" s="3">
         <v>182000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>416000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>552000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4232000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>329000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-287000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-895000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-461000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-538000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-133000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-851000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-739000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E27" s="3">
         <v>143000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>408000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>499000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3416000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>293000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-299000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-876000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-499000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-636000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-846000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-732000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1682,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1645,11 +1705,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1657,12 +1717,12 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>300000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1670,10 +1730,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-106000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>23000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-62000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-52000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-167000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-126000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-50000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>75000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-53000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E33" s="3">
         <v>143000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>408000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>499000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3416000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>293000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-299000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-876000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-499000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-636000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-846000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-732000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E35" s="3">
         <v>143000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>408000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>499000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3416000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>293000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-299000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-876000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-499000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-636000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-846000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-732000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43952</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43770</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43679</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43588</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43497</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43406</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43315</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43224</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43133</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43042</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42860</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,55 +2129,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11221000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12229000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9302000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8555000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9193000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9040000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9676000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15152000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15312000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15324000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13942000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11706000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9213000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9554000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2111,364 +2200,388 @@
       <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>2322000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2504000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2402000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2187000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2008000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2015000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1620000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16498000</v>
+      </c>
+      <c r="E43" s="3">
         <v>15549000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17379000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16036000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16059000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14794000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16769000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15247000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15341000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14523000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15640000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12832000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13189000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12089000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3602000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3616000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3281000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3257000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3135000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3360000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3649000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3793000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3642000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2933000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2678000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2582000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2594000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2466000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9769000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9537000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6906000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6924000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6929000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6461000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6044000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6445000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6326000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6049000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5881000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5397000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5194000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4655000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41090000</v>
+      </c>
+      <c r="E46" s="3">
         <v>40931000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36868000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34772000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35316000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33655000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36138000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42959000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43125000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41231000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40328000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34525000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32205000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30384000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6451000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5684000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5712000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5303000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5118000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4913000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5229000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6918000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7679000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7742000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7887000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7590000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7221000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6513000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8167000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7845000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7835000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7539000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7198000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7032000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5259000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5228000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5240000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5303000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5390000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5378000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5438000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56708000</v>
+      </c>
+      <c r="E49" s="3">
         <v>57075000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>59798000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>60862000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>59717000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>60963000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>62359000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>63438000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64712000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66393000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>68185000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>69176000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>70987000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>72213000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8860000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8701000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8648000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8338000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8171000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3329000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2835000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2698000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2625000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2548000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2403000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1725000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1681000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1492000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121276000</v>
+      </c>
+      <c r="E54" s="3">
         <v>120236000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118861000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>116814000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>115520000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109892000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>111820000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121241000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123381000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123217000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>124193000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118394000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117494000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116040000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19500000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18432000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20065000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19443000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19411000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18097000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19213000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19748000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20853000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18534000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18334000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16711000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16916000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15064000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10345000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8375000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7737000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7664000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5949000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4884000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4320000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8150000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9144000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7133000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7873000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6235000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7686000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4842000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24443000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23204000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24654000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21948000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21660000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20498000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21439000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19685000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19181000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18447000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19632000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17796000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17524000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16730000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54288000</v>
+      </c>
+      <c r="E60" s="3">
         <v>50011000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>52456000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49055000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47020000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43479000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44972000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47583000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49178000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44114000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45839000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40742000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42126000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36636000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43608000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48353000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44319000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44727000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45973000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48640000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>49201000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>40507000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40414000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44770000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43998000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45416000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41374000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44948000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18212000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18191000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18302000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18221000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18408000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17660000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17393000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16631000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16522000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16509000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16487000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16648000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16725000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16765000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121085000</v>
+      </c>
+      <c r="E66" s="3">
         <v>121409000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>119806000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117684000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116945000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>114582000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>116389000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111554000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112762000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>111888000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112090000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>108513000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>106214000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>104207000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,55 +3487,61 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>610000</v>
+      </c>
+      <c r="E70" s="3">
         <v>441000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>629000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>934000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>1024000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>1774000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1196000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2095000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2056000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>844000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>384000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>362000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>333000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>301000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15810000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-419000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7592000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8563000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10485000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11719000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9519000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10947000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11532000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43952</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43770</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43679</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43588</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43497</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43406</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43315</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43224</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43133</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43042</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42860</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E81" s="3">
         <v>143000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>408000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>499000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3416000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>293000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-299000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-876000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-499000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-636000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-846000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-732000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1316000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1535000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1494000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1498000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1616000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1940000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1961000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1931000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1914000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2143000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2137000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2142000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2212000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3332000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-796000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3508000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1821000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3280000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>682000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2366000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>833000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2633000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1159000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3099000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1639000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1820000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>285000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,17 +4384,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-545000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-559000</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4183,37 +4403,40 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3000</v>
       </c>
       <c r="L91" s="3">
         <v>-3000</v>
       </c>
       <c r="M91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-924000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-485000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-704000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-825000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-458000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3610000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-149000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-885000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>51000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,8 +4604,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4419,8 +4652,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3437000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4264000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>322000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-719000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-857000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>543000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-122000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-888000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-187000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-136000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-38000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-26000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-36000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>73000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-46000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-130000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-86000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>128000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>54000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-945000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2847000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>810000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-594000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>226000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-531000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-129000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1467000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2220000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2540000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-357000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>143000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44134</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43952</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43770</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43679</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43588</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43497</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43406</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43315</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43224</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43133</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43042</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42860</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23482000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22733000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21897000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24032000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22844000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23370000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21908000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23841000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22482000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22942000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21356000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21963000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19556000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19521000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18000000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16221000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15577000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15044000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16348000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15718000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16044000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15111000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16732000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16539000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16819000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15478000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16071000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14336000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14553000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13543000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7261000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7156000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6853000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7684000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7126000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7326000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6797000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7109000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5943000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6123000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5878000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5892000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5220000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4968000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4457000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1259000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1265000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1325000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1262000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1229000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1176000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1202000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1140000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1175000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1087000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2157000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2118000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2178000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2248000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1033,23 +1052,26 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>42000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22353000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21597000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21195000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23315000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22008000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22851000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21358000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23510000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22838000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22955000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21509000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22032000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19966000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20186000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19272000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1136000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>702000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>717000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>836000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>519000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>550000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>331000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-356000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-153000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-69000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-410000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-665000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-19000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>106000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>62000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>52000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>167000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>126000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>50000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-75000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>53000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3329000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2457000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2124000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2256000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2307000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2079000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2172000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2323000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1578000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2085000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1887000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1652000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1530000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>965000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E22" s="3">
         <v>617000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>672000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>630000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>654000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>692000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>699000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>658000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>612000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>622000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>596000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>604000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>607000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>598000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>597000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E23" s="3">
         <v>500000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>136000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>91000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>159000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-111000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-143000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-275000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-995000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-623000</v>
       </c>
       <c r="N23" s="3">
         <v>-623000</v>
       </c>
       <c r="O23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-599000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-325000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-393000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-472000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-85000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-490000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-241000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-471000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-641000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>881000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1099000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>182000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>416000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>552000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4232000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>329000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-287000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-895000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-461000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-538000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-133000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-851000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-739000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1048000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>143000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>408000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>499000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3416000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>293000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-299000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-876000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-499000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-636000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-846000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-732000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1708,11 +1768,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1720,12 +1780,12 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>300000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1733,10 +1793,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-839000</v>
+      </c>
+      <c r="E32" s="3">
         <v>19000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-106000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-62000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-52000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-167000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-126000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-50000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>75000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1048000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>143000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>408000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>499000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3416000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>293000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-299000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-876000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-499000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-636000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-846000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-732000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1048000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>143000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>408000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>499000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3416000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>293000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-299000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-876000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-499000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-636000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-846000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-732000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44134</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43952</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43770</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43679</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43588</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43497</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43406</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43315</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43224</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43133</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43042</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42860</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2215,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11304000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11221000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12229000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9302000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8555000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9193000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9040000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9676000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15152000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15312000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15324000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13942000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11706000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9213000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9554000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>2322000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2504000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2402000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2187000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2008000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2015000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1620000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16249000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16498000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15549000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17379000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16036000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16059000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14794000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16769000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15247000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15341000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14523000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15640000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12832000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13189000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12089000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3393000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3602000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3616000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3281000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3257000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3135000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3360000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3649000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3793000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3642000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2933000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2678000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2582000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2594000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2466000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7668000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9769000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9537000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6906000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6924000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6929000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6461000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6044000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6445000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6326000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6049000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5881000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5397000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5194000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4655000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38614000</v>
+      </c>
+      <c r="E46" s="3">
         <v>41090000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40931000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36868000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34772000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35316000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33655000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36138000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42959000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43125000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41231000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40328000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34525000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32205000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30384000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7029000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6451000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5684000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5712000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5303000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5118000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4913000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5229000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6918000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7679000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7742000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7887000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7590000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7221000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6513000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8523000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8167000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7845000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7835000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7539000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7198000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7032000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5259000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5228000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5240000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5303000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5390000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5378000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5438000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>55900000</v>
+      </c>
+      <c r="E49" s="3">
         <v>56708000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>57075000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>59798000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>60862000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>59717000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>60963000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>62359000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>63438000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64712000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66393000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>68185000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>69176000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>70987000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>72213000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8882000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8860000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8701000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8648000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8338000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8171000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3329000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2835000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2698000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2625000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2548000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2403000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1725000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1681000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1492000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118948000</v>
+      </c>
+      <c r="E54" s="3">
         <v>121276000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>120236000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118861000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>116814000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115520000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109892000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>111820000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121241000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123381000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123217000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124193000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118394000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117494000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116040000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19792000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19500000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18432000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20065000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19443000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19411000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18097000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19213000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19748000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20853000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18534000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18334000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16711000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16916000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15064000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6536000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10345000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8375000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7737000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7664000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5949000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4884000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4320000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8150000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9144000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7133000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7873000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6235000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7686000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4842000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23974000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24443000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23204000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24654000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21948000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21660000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20498000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21439000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19685000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19181000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18447000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19632000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17796000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17524000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16730000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50302000</v>
+      </c>
+      <c r="E60" s="3">
         <v>54288000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50011000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>52456000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49055000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47020000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43479000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44972000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47583000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49178000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44114000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45839000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40742000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42126000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36636000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43325000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43608000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48353000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44319000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44727000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45973000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48640000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>49201000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40507000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40414000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44770000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43998000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45416000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41374000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44948000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18855000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18212000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18191000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18302000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18221000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18408000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17660000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17393000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16631000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16522000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16509000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16487000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16648000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16725000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16765000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117538000</v>
+      </c>
+      <c r="E66" s="3">
         <v>121085000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>121409000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>119806000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117684000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>116945000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>114582000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>116389000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111554000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112762000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>111888000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112090000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>108513000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>106214000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>104207000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,58 +3654,64 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E70" s="3">
         <v>610000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>441000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>629000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>934000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>1024000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1774000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>1196000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2095000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2056000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>844000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>384000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>362000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>333000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>301000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14978000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-419000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7592000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8563000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10485000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11719000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9519000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10947000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11532000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44134</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43952</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43770</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43679</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43588</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43497</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43406</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43315</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43224</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43133</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43042</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42860</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1048000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>143000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>408000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>499000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3416000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>293000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-299000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-876000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-499000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-636000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-846000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-732000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1340000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1316000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1535000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1494000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1498000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1616000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1940000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1961000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1931000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1914000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2143000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2137000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2142000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2212000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2994000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3332000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-796000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3508000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1821000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3280000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>682000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2366000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>833000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2633000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1159000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3099000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1639000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1820000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>285000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,20 +4604,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-480000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-545000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-559000</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4406,37 +4626,40 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3000</v>
       </c>
       <c r="M91" s="3">
         <v>-3000</v>
       </c>
       <c r="N91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-924000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-485000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-704000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-825000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-458000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3610000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-149000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-885000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>51000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4655,8 +4888,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4310000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4264000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>322000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-719000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-857000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>543000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-122000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-888000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-187000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>84000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-136000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-38000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-36000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>73000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-46000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-130000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-86000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>128000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>54000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-945000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2847000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>810000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-594000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>226000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-531000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-129000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1467000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2220000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2540000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-357000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>143000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
         <v>44134</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43952</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43770</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43679</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43588</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43497</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43406</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43315</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43224</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43133</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43042</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42951</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42860</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26112000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23482000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22733000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21897000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24032000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22844000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23370000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21908000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23841000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22482000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22942000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21356000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21963000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19556000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19521000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18000000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17965000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16221000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15577000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15044000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16348000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15718000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16044000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15111000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16732000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16539000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16819000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15478000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16071000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14336000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14553000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13543000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8147000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7261000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7156000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6853000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7684000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7126000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7326000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6797000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7109000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5943000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6123000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5878000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5892000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5220000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4968000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4457000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +923,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1391000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1360000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1259000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1265000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1325000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1262000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1229000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1176000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1202000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1140000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1175000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1087000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2157000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2118000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2178000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2248000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,23 +1074,26 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>42000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23935000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22353000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21597000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21195000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23315000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22008000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22851000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21358000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23510000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22838000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22955000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21509000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22032000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19966000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20186000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19272000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2177000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1129000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1136000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>702000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>717000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>836000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>519000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>550000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>331000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-356000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-153000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-69000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-410000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-665000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>839000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>106000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>62000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>167000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>126000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>50000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>53000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3539000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3329000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2457000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2124000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2256000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2307000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2079000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2172000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2323000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1578000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2085000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1887000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1652000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1530000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>965000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E22" s="3">
         <v>566000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>617000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>672000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>630000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>654000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>692000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>699000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>658000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>612000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>622000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>596000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>604000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>607000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>598000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>597000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1402000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>136000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>91000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>159000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-111000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-143000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-275000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-995000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-623000</v>
       </c>
       <c r="O23" s="3">
         <v>-623000</v>
       </c>
       <c r="P23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E24" s="3">
         <v>521000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-599000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-325000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-393000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-472000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-85000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-490000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-471000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-641000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E26" s="3">
         <v>881000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1099000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>182000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>416000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>552000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4232000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>329000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-287000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-895000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-461000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-538000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-133000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-851000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-739000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="E27" s="3">
         <v>832000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1048000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>143000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>408000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>499000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3416000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>293000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-299000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-876000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-499000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-636000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-846000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-732000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,11 +1831,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1783,12 +1843,12 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>300000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1796,10 +1856,13 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-839000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-106000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-62000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-167000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-126000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-50000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>75000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-53000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="E33" s="3">
         <v>832000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1048000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>143000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>408000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>499000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3416000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>293000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-299000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-876000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-499000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-636000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-846000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-732000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="E35" s="3">
         <v>832000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1048000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>143000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>408000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>499000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3416000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>293000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-299000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-876000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-499000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-636000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-846000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-732000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
         <v>44134</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43952</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43770</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43679</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43588</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43497</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43406</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43315</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43224</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43133</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43042</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42951</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42860</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14201000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11304000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11221000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12229000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9302000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8555000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9193000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9040000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9676000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15152000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15312000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15324000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13942000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11706000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9213000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9554000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2299,402 +2388,426 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>2322000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2504000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2402000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2187000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2008000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2015000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1620000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17943000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16249000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16498000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15549000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17379000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16036000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16059000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14794000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16769000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15247000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15341000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14523000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15640000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12832000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13189000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12089000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3402000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3393000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3602000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3616000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3281000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3257000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3135000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3360000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3649000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3793000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3642000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2933000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2678000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2582000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2594000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2466000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8021000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7668000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9769000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9537000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6906000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6924000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6929000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6461000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6044000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6445000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6326000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6049000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5881000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5397000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5194000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4655000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43567000</v>
+      </c>
+      <c r="E46" s="3">
         <v>38614000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41090000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40931000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36868000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34772000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35316000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33655000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36138000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42959000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43125000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41231000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40328000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34525000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32205000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30384000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6963000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7029000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6451000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5684000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5712000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5303000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5118000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4913000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5229000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6918000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7679000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7742000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7887000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7590000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7221000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6513000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8548000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8523000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8167000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7845000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7835000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7539000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7198000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7032000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5259000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5228000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5240000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5303000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5390000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5378000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5400000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5438000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>55258000</v>
+      </c>
+      <c r="E49" s="3">
         <v>55900000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>56708000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>57075000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>59798000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>60862000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>59717000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>60963000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62359000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>63438000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>64712000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66393000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>68185000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>69176000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>70987000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>72213000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9079000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8882000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8860000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8701000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8648000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8338000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8171000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3329000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2835000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2698000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2625000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2548000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2403000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1725000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1681000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1492000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123415000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118948000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121276000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>120236000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118861000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>116814000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115520000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109892000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111820000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121241000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123381000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123217000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>124193000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118394000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117494000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>116040000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21696000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19792000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19500000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18432000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20065000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19443000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19411000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18097000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19213000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19748000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20853000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18534000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18334000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16711000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16916000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15064000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6362000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6536000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10345000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8375000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7737000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7664000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5949000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4884000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4320000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8150000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9144000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7133000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7873000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6235000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7686000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4842000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26074000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23974000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24443000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23204000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24654000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21948000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21660000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20498000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21439000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19685000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19181000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18447000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19632000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17796000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17524000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16730000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54132000</v>
+      </c>
+      <c r="E60" s="3">
         <v>50302000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54288000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50011000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52456000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49055000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47020000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43479000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44972000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47583000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49178000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44114000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45839000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40742000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42126000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36636000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41622000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43325000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43608000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48353000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44319000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44727000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45973000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48640000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49201000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40507000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40414000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44770000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43998000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45416000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41374000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44948000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19636000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18855000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18212000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18191000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18302000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18221000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18408000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17660000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17393000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16631000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16522000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16509000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16487000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16648000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16725000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16765000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>120464000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117538000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>121085000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>121409000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>119806000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117684000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>116945000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>114582000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116389000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>111554000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112762000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>111888000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112090000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>108513000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>106214000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>104207000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,61 +3821,67 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E70" s="3">
         <v>527000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>610000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>441000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>629000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>934000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1024000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>1774000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1196000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2095000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2056000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>844000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>384000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>362000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>333000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>301000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13751000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E76" s="3">
         <v>883000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-419000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7592000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8563000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10485000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11719000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9519000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10947000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11532000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
         <v>44134</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43952</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43770</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43679</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43588</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43497</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43406</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43315</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43224</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43133</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43042</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42951</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42860</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="E81" s="3">
         <v>832000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1048000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>143000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>408000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>499000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3416000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>293000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-299000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-876000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-499000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-636000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-846000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-732000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1361000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1340000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1316000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1535000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1494000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1498000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1616000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1940000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1961000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1931000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1914000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2143000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2142000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2212000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5877000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2994000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3332000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-796000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3508000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1821000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3280000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>682000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2366000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>833000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2633000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1159000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3099000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1639000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1820000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>285000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,23 +4824,24 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-498000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-480000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-545000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-559000</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4629,37 +4849,40 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3000</v>
       </c>
       <c r="N91" s="3">
         <v>-3000</v>
       </c>
       <c r="O91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-486000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1435000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-924000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-485000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-704000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-825000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-458000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3610000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-149000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-885000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>51000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4891,8 +5124,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2467000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4264000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>322000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-719000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-857000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>543000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-122000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-888000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-187000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>84000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-136000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-38000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-36000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>73000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-46000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-130000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-86000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>128000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>54000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3027000</v>
+      </c>
+      <c r="E102" s="3">
         <v>104000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-945000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2847000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>810000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-594000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>226000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-531000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-129000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1467000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2220000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2540000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-357000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>143000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43952</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43770</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43679</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43588</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43497</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43406</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43315</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43224</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43133</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43042</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42951</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42860</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24487000</v>
+      </c>
+      <c r="E8" s="3">
         <v>26112000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23482000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22733000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21897000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24032000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22844000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23370000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21908000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23841000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22482000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22942000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21356000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21963000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19556000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19521000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18000000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16829000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17965000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16221000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15577000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15044000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16348000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15718000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16044000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15111000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16732000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16539000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16819000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15478000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16071000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14336000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14553000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13543000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7658000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8147000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7261000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7156000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6853000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7684000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7126000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7326000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6797000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7109000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5943000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6123000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5878000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5892000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5220000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4968000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4457000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,64 +936,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1391000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1360000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1259000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1265000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1325000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1262000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1229000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1176000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1202000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1140000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1175000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1087000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2157000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2118000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2178000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2248000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,19 +1052,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-338000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1056,8 +1075,8 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1077,23 +1096,26 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>42000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23112000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23935000</v>
       </c>
-      <c r="E17" s="3">
-        <v>22353000</v>
-      </c>
       <c r="F17" s="3">
+        <v>22015000</v>
+      </c>
+      <c r="G17" s="3">
         <v>21597000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21195000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23315000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22008000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22851000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21358000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23510000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22838000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22955000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21509000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22032000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19966000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20186000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19272000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2177000</v>
       </c>
-      <c r="E18" s="3">
-        <v>1129000</v>
-      </c>
       <c r="F18" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1136000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>702000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>717000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>836000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>519000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>550000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>331000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-356000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-153000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-410000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-665000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11000</v>
       </c>
-      <c r="E20" s="3">
-        <v>839000</v>
-      </c>
       <c r="F20" s="3">
+        <v>501000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>106000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-23000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>62000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>52000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>167000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>126000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>50000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-75000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>53000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3539000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3329000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2457000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2124000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2256000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2307000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2079000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2172000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2323000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1578000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2085000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1887000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1652000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1530000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>965000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E22" s="3">
         <v>534000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>566000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>617000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>672000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>630000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>654000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>692000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>699000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>658000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>612000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>622000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>596000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>604000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>607000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>598000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>597000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1632000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1402000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>136000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>91000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>159000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-111000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-143000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-275000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-995000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-623000</v>
       </c>
       <c r="P23" s="3">
         <v>-623000</v>
       </c>
       <c r="Q23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E24" s="3">
         <v>289000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>521000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-599000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-46000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-325000</v>
       </c>
-      <c r="I24" s="3">
-        <v>-393000</v>
-      </c>
       <c r="J24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-472000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-85000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-490000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-241000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-471000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-641000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>938000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1343000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>881000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1099000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>182000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>416000</v>
       </c>
-      <c r="I26" s="3">
-        <v>552000</v>
-      </c>
       <c r="J26" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K26" s="3">
         <v>4232000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>329000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-287000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-895000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-461000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-538000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-851000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-739000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1227000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>832000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1048000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>143000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>408000</v>
       </c>
-      <c r="I27" s="3">
-        <v>499000</v>
-      </c>
       <c r="J27" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K27" s="3">
         <v>3416000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>293000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-299000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-876000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-499000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-636000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-846000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-732000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1825,20 +1885,20 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>400000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1846,12 +1906,12 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -1859,10 +1919,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E32" s="3">
         <v>11000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-839000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-501000</v>
+      </c>
+      <c r="G32" s="3">
         <v>19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-106000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>23000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-62000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-52000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-167000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-126000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>75000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-53000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1227000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>832000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1048000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>143000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>408000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>499000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3416000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>293000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-299000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-876000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-499000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-636000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-846000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-732000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1227000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>832000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1048000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>143000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>408000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>499000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3416000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>293000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-299000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-876000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-499000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-636000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-846000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-732000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43952</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43770</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43679</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43588</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43497</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43406</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43315</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43224</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43133</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43042</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42951</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42860</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14244000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14201000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11304000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11221000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12229000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9302000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8555000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9193000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9040000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9676000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15152000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15312000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15324000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13942000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11706000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9213000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9554000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2391,423 +2480,447 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>2322000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2504000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2402000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2187000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2008000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2015000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1620000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15889000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17943000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16249000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16498000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15549000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17379000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16036000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16059000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14794000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16769000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15247000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15341000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14523000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15640000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12832000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13189000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12089000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3828000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3402000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3393000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3602000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3616000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3281000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3257000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3135000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3360000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3649000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3793000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3642000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2933000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2678000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2582000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2594000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2466000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8378000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8021000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7668000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9769000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9537000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6906000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6924000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6929000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6461000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6044000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6445000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6326000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6049000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5881000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5397000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5194000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4655000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42339000</v>
+      </c>
+      <c r="E46" s="3">
         <v>43567000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38614000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41090000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40931000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36868000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34772000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35316000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33655000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36138000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42959000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>43125000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41231000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40328000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34525000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32205000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30384000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6931000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6963000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7029000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6451000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5684000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5712000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5303000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5118000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4913000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5229000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6918000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7679000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7742000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7887000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7590000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7221000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6513000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8645000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8548000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8523000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8167000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7845000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7835000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7539000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7198000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7032000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5259000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5228000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5240000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5303000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5390000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5378000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5400000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5438000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54568000</v>
+      </c>
+      <c r="E49" s="3">
         <v>55258000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55900000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56708000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>57075000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>59798000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>60862000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>59717000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60963000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62359000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>63438000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>64712000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66393000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>68185000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>69176000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>70987000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>72213000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9269000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9079000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8882000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8860000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8701000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8648000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8338000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8171000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3329000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2835000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2698000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2625000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2548000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2403000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1725000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1681000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1492000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121752000</v>
+      </c>
+      <c r="E54" s="3">
         <v>123415000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118948000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121276000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>120236000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118861000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116814000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>115520000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109892000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111820000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121241000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123381000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>123217000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>124193000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118394000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117494000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>116040000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21545000</v>
+      </c>
+      <c r="E57" s="3">
         <v>21696000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19792000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19500000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18432000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20065000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19443000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19411000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18097000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19213000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19748000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20853000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18534000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18334000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16711000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16916000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15064000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8748000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6362000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6536000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10345000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8375000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7737000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7664000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5949000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4884000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4320000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8150000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9144000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7133000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7873000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6235000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7686000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4842000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24563000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26074000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23974000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24443000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23204000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24654000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21948000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21660000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20498000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21439000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19685000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19181000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18447000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19632000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17796000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17524000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16730000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54856000</v>
+      </c>
+      <c r="E60" s="3">
         <v>54132000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50302000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54288000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50011000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>52456000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49055000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47020000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43479000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44972000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47583000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49178000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44114000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45839000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40742000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42126000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36636000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37935000</v>
+      </c>
+      <c r="E61" s="3">
         <v>41622000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43325000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43608000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48353000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44319000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44727000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45973000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>48640000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>49201000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40507000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40414000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44770000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43998000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45416000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>41374000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44948000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19817000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19636000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18855000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18212000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18191000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18302000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18221000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18408000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17660000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17393000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16631000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16522000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16509000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16487000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16648000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16725000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16765000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117707000</v>
+      </c>
+      <c r="E66" s="3">
         <v>120464000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117538000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>121085000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>121409000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>119806000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117684000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>116945000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114582000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>116389000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>111554000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112762000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>111888000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112090000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>108513000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>106214000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>104207000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,64 +3988,70 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E70" s="3">
         <v>472000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>527000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>610000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>441000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>629000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>934000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>1024000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1774000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1196000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2095000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2056000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>844000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>384000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>362000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>333000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>301000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12864000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3487000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2479000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>883000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-419000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7592000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8563000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10485000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11719000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9519000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10947000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11532000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43952</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43770</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43679</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43588</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43497</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43406</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43315</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43224</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43133</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43042</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42951</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42860</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1227000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>832000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1048000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>143000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>408000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>499000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3416000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>293000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-299000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-876000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-499000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-636000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-846000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-732000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1373000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1361000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1340000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1316000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1535000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1494000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1498000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1616000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1940000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1961000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1931000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1914000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2143000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2137000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2142000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2212000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2238000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5877000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2994000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3332000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-796000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3508000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1821000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3280000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>682000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2366000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>833000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2633000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1159000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3099000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1639000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1820000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>285000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,26 +5044,27 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-625000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-498000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-480000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-545000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-559000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4852,37 +5072,40 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-3000</v>
       </c>
       <c r="O91" s="3">
         <v>-3000</v>
       </c>
       <c r="P91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-519000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-486000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1435000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-924000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-485000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-704000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-825000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-458000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3610000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-149000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-885000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>51000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5127,8 +5360,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1638000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4264000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>322000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-719000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-857000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>543000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-888000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-187000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>103000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>84000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-136000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-38000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-36000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>73000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-46000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-130000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-86000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>128000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>54000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3027000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>104000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-945000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2847000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>810000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-594000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>226000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-531000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-129000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1467000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2220000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2540000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-357000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>143000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43952</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43770</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43679</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43588</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43497</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43406</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43315</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43224</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43133</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43042</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42951</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42860</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26122000</v>
+      </c>
+      <c r="E8" s="3">
         <v>24487000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26112000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23482000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22733000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21897000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24032000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22844000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23370000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21908000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23841000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22482000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22942000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21356000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21963000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19556000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19521000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18000000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18137000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16829000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17965000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16221000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15577000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15044000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16348000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15718000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16044000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15111000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16732000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16539000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16819000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15478000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16071000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14336000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14553000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13543000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7985000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7658000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8147000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7261000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7156000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6853000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7684000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7126000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7326000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6797000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7109000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5943000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6123000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5878000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5892000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5220000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4968000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4457000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1468000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1323000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1391000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1360000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1259000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1265000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1325000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1262000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1229000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1176000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1202000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1140000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1175000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1087000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2157000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2118000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2178000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2248000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,31 +1071,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1099,23 +1118,26 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>42000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24750000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23112000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23935000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22015000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21597000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21195000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23315000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22008000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22851000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21358000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23510000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22838000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22955000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21509000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22032000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19966000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20186000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19272000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1375000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2177000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1467000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1136000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>702000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>717000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>836000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>519000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>550000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>331000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-356000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-69000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-410000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-665000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,67 +1366,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E20" s="3">
         <v>122000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>501000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>106000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-23000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>62000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>52000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>167000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>126000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>50000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-75000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>53000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1402,235 +1438,247 @@
         <v>2736000</v>
       </c>
       <c r="E21" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3539000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3329000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2457000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2124000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2256000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2307000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2079000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2172000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2323000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1578000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2085000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1887000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1652000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1530000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>965000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E22" s="3">
         <v>510000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>534000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>566000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>617000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>672000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>630000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>654000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>692000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>699000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>658000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>612000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>622000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>596000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>604000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>607000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>598000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>597000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="E23" s="3">
         <v>987000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1632000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1402000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>136000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>91000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>159000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-111000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-143000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-275000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-995000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-623000</v>
       </c>
       <c r="Q23" s="3">
         <v>-623000</v>
       </c>
       <c r="R23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E24" s="3">
         <v>49000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>289000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>521000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-599000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-46000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-325000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-472000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-85000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-490000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-241000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-471000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-641000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>880000</v>
+      </c>
+      <c r="E26" s="3">
         <v>938000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1343000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>881000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1099000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>182000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>416000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>152000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4232000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>329000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-287000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-895000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-461000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-538000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-133000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-851000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-739000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E27" s="3">
         <v>887000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1227000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>832000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1048000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>143000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>408000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>99000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3416000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>293000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-299000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-876000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-499000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-636000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-846000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-732000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1885,23 +1945,23 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>400000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1909,12 +1969,12 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>300000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -1922,10 +1982,13 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-122000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-501000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-106000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>23000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-62000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-52000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-167000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-50000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>75000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-53000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E33" s="3">
         <v>887000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1227000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>832000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1048000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>143000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>408000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>499000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3416000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>293000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-299000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-876000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-499000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-636000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-846000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-732000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E35" s="3">
         <v>887000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1227000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>832000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1048000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>143000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>408000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>499000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3416000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>293000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-299000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-876000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-499000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-636000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-846000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-732000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43952</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43770</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43679</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43588</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43497</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43406</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43315</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43224</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43133</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43042</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42951</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42860</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11719000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14244000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14201000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11304000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11221000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12229000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9302000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8555000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9193000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9040000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9676000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15152000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15312000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15324000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13942000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11706000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9213000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9554000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2483,444 +2572,468 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>2322000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2504000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2402000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2187000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2008000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2015000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1620000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17869000</v>
+      </c>
+      <c r="E43" s="3">
         <v>15889000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17943000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16249000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16498000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15549000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17379000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16036000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16059000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14794000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16769000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15247000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15341000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14523000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15640000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12832000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>13189000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12089000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4223000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3828000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3402000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3393000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3602000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3616000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3281000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3257000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3135000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3360000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3649000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3793000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3642000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2933000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2678000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2582000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2594000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2466000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9744000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8378000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8021000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7668000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9769000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9537000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6906000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6924000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6929000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6461000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6044000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6445000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6326000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6049000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5881000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5397000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5194000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4655000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43555000</v>
+      </c>
+      <c r="E46" s="3">
         <v>42339000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43567000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38614000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41090000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40931000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36868000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34772000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35316000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33655000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36138000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42959000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>43125000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>41231000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40328000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34525000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32205000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30384000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7205000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6931000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6963000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7029000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6451000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5684000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5712000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5303000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5118000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4913000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5229000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6918000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7679000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7742000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7887000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7590000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7221000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6513000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8705000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8645000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8548000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8523000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8167000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7845000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7835000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7539000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7198000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7032000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5259000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5228000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5240000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5303000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5390000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5378000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5400000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5438000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>53755000</v>
+      </c>
+      <c r="E49" s="3">
         <v>54568000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55258000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>55900000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56708000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>57075000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>59798000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>60862000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>59717000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60963000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62359000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>63438000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>64712000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>66393000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>68185000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>69176000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>70987000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>72213000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9458000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9269000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9079000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8882000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8860000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8701000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8648000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8338000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8171000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3329000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2835000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2698000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2625000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2548000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2403000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1725000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1681000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1492000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122678000</v>
+      </c>
+      <c r="E54" s="3">
         <v>121752000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123415000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118948000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121276000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>120236000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118861000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116814000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115520000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109892000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>111820000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121241000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>123381000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123217000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>124193000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118394000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117494000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>116040000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23029000</v>
+      </c>
+      <c r="E57" s="3">
         <v>21545000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21696000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19792000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19500000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18432000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20065000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19443000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19411000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18097000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19213000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19748000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20853000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18534000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18334000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16711000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16916000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15064000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6427000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8748000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6362000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6536000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10345000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8375000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7737000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7664000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5949000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4884000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4320000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8150000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9144000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7133000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7873000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6235000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7686000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4842000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26027000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24563000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26074000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23974000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24443000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23204000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24654000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21948000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21660000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20498000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21439000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19685000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19181000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18447000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19632000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17796000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17524000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16730000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55483000</v>
+      </c>
+      <c r="E60" s="3">
         <v>54856000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54132000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50302000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54288000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50011000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>52456000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49055000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47020000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43479000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44972000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47583000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49178000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44114000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45839000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40742000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42126000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36636000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37167000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37935000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41622000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43325000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43608000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48353000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44319000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44727000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45973000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>48640000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49201000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40507000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40414000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44770000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43998000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>45416000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>41374000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>44948000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20085000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19817000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19636000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18855000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18212000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18191000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18302000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18221000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18408000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17660000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17393000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16631000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16522000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16509000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16487000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16648000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16725000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16765000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117853000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117707000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120464000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117538000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>121085000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>121409000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>119806000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117684000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116945000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114582000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>116389000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>111554000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112762000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>111888000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112090000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>108513000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>106214000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>104207000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,67 +4155,73 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>558000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>472000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>527000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>610000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>441000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>629000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>934000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1024000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1774000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1196000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2095000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>2056000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>844000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>384000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>362000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>333000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>301000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12033000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4825000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3487000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2479000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>883000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-419000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7592000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8563000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10485000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11719000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9519000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10947000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11532000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43952</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43770</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43679</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43588</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43497</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43406</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43315</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43224</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43133</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43042</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42951</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42860</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E81" s="3">
         <v>887000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1227000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>832000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1048000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>143000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>408000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>499000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3416000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>293000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-299000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-876000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-499000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-636000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-846000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-732000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1239000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1373000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1361000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1340000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1316000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1535000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1494000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1498000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1616000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1940000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1961000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1931000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1914000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2143000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2137000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2142000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2212000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2238000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5877000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2994000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3332000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-796000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3508000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1821000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3280000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>682000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2366000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>833000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2633000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1159000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3099000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1639000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1820000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>285000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,29 +5264,30 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-632000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-625000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-498000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-480000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-545000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-559000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5075,37 +5295,40 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-3000</v>
       </c>
       <c r="P91" s="3">
         <v>-3000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-669000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-519000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-486000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1435000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-924000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-485000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-704000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-825000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-458000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3610000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-149000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-885000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>51000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5363,8 +5596,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3673000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4264000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>322000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-719000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-857000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>543000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-122000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-888000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-187000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>103000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>84000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-136000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-38000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-36000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>73000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-46000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-130000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>128000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>54000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2633000</v>
+      </c>
+      <c r="E102" s="3">
         <v>76000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3027000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>104000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-945000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2847000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>810000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-594000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>226000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-531000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-129000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-40000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1467000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2220000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2540000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-357000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>143000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E7" s="2">
         <v>44407</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44225</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43952</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43770</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43679</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43588</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43497</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43406</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43315</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43224</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43133</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43042</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42951</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42860</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>73205000</v>
+      </c>
+      <c r="E8" s="3">
         <v>26122000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24487000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26112000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23482000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22733000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21897000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24032000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22844000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23370000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21908000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23841000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22482000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22942000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21356000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21963000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19556000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19521000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18000000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>56932000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18137000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16829000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17965000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16221000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15577000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15044000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16348000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15718000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16044000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15111000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16732000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16539000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16819000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15478000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16071000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14336000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14553000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13543000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16273000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7985000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7658000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8147000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7261000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7156000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6853000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7684000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7126000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7326000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6797000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7109000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5943000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6123000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5878000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5892000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5220000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4968000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4457000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +962,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3382000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1468000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1323000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1391000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1360000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1259000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1265000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1325000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1262000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1229000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1176000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1202000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1140000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1175000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1087000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2157000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2118000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2178000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2248000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,34 +1090,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-3960000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1121,23 +1140,26 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>42000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>31000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70155000</v>
+      </c>
+      <c r="E17" s="3">
         <v>24750000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23112000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23935000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22015000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21597000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21195000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23315000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22008000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22851000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21358000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23510000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22838000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22955000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21509000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22032000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19966000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20186000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19272000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3050000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1372000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1375000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2177000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1467000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1136000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>702000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>717000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>836000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>519000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>550000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>331000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-356000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-153000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-69000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-410000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-665000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3403000</v>
+      </c>
+      <c r="E20" s="3">
         <v>124000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>122000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>501000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>106000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>52000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>167000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>126000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>50000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-75000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>53000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2736000</v>
+        <v>10174000</v>
       </c>
       <c r="E21" s="3">
         <v>2736000</v>
       </c>
       <c r="F21" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="G21" s="3">
         <v>3539000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3329000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2457000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2256000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2307000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2079000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2172000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2323000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1578000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2085000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1887000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1652000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1530000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>965000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E22" s="3">
         <v>483000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>510000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>534000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>566000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>617000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>672000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>630000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>654000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>692000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>699000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>658000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>612000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>622000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>596000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>604000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>607000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>598000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>597000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5971000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1013000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>987000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1632000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1402000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>136000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>91000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>159000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-111000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-143000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-275000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-995000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-623000</v>
       </c>
       <c r="R23" s="3">
         <v>-623000</v>
       </c>
       <c r="S23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E24" s="3">
         <v>133000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>49000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>289000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>521000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-599000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-325000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-472000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-85000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-490000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-241000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-471000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-641000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4971000</v>
+      </c>
+      <c r="E26" s="3">
         <v>880000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>938000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1343000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>881000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1099000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>182000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>416000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>152000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4232000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>329000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-287000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-895000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-461000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-538000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-133000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-851000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-739000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4976000</v>
+      </c>
+      <c r="E27" s="3">
         <v>831000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>887000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1227000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>832000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1048000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>143000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>408000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3416000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>293000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-299000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-876000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-499000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-636000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-846000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-732000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,13 +1982,16 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>585000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1948,23 +2008,23 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>400000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1972,12 +2032,12 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>300000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -1985,10 +2045,13 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3403000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-124000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-122000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-501000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-106000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-52000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-126000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-50000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>75000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-53000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5561000</v>
+      </c>
+      <c r="E33" s="3">
         <v>831000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>887000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1227000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>832000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1048000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>143000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>408000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>499000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3416000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>293000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-299000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-876000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-499000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-636000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-846000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-732000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5561000</v>
+      </c>
+      <c r="E35" s="3">
         <v>831000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>887000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1227000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>832000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1048000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>143000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>408000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>499000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3416000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>293000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-299000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-876000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-499000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-636000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-846000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-732000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E38" s="2">
         <v>44407</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44225</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43952</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43770</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43679</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43588</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43497</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43406</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43315</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43224</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43133</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43042</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42951</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42860</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22406000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11719000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14244000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14201000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11304000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11221000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12229000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9302000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8555000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9193000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9040000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9676000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15152000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15312000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15324000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13942000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11706000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9213000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9554000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2575,465 +2664,489 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>2322000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2504000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2402000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2187000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2008000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2015000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1620000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19147000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17869000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15889000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17943000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16249000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16498000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15549000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17379000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16036000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16059000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14794000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16769000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15247000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15341000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14523000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15640000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12832000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>13189000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12089000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5442000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4223000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3828000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3402000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3393000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3602000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3616000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3281000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3257000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3135000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3360000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3649000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3793000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3642000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2933000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2678000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2582000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2594000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2466000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10184000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9744000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8378000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8021000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7668000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9769000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9537000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6906000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6924000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6929000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6461000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6044000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6445000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6326000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6049000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5881000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5397000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5194000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4655000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>57179000</v>
+      </c>
+      <c r="E46" s="3">
         <v>43555000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42339000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43567000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38614000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41090000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40931000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36868000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34772000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35316000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33655000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36138000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42959000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>43125000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41231000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40328000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34525000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32205000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30384000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7097000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7205000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6931000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6963000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7029000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6451000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5684000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5712000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5303000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5118000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4913000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5229000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6918000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7679000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7742000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7887000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7590000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7221000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6513000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8878000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8705000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8645000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8548000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8523000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8167000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7845000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7835000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7539000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7198000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7032000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5259000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5228000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5240000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5303000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5390000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5378000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5400000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5438000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>53020000</v>
+      </c>
+      <c r="E49" s="3">
         <v>53755000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54568000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>55258000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>55900000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>56708000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>57075000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>59798000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60862000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>59717000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60963000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62359000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>63438000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64712000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>66393000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>68185000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>69176000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>70987000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>72213000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9503000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9458000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9269000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9079000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8882000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8860000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8701000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8648000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8338000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8171000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3329000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2835000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2698000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2625000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2548000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2403000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1725000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1681000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1492000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135677000</v>
+      </c>
+      <c r="E54" s="3">
         <v>122678000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121752000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123415000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118948000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121276000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>120236000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118861000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116814000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115520000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109892000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>111820000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121241000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123381000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123217000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>124193000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>118394000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>117494000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>116040000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26772000</v>
+      </c>
+      <c r="E57" s="3">
         <v>23029000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21545000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21696000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19792000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19500000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18432000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20065000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19443000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19411000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18097000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19213000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19748000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20853000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18534000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18334000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16711000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16916000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15064000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16280000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6427000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8748000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6362000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6536000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10345000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8375000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7737000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7664000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5949000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4884000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4320000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8150000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9144000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7133000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7873000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6235000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7686000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4842000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26650000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26027000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24563000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26074000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23974000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24443000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23204000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24654000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21948000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21660000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20498000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21439000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19685000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19181000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18447000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19632000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17796000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17524000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16730000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>69702000</v>
+      </c>
+      <c r="E60" s="3">
         <v>55483000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54856000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54132000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50302000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54288000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50011000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52456000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49055000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47020000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43479000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44972000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47583000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49178000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44114000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45839000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40742000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42126000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36636000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31699000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37167000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37935000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>41622000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43325000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43608000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48353000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44319000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44727000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45973000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>48640000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49201000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40507000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>40414000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44770000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43998000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>45416000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>41374000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>44948000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20082000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20085000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19817000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19636000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18855000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18212000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18191000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18302000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18221000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18408000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17660000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17393000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16631000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16522000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16509000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16487000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16648000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16725000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16765000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126723000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117853000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117707000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120464000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117538000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>121085000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>121409000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>119806000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117684000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>116945000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>114582000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116389000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>111554000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112762000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>111888000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>112090000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>108513000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>106214000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>104207000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4167,61 +4334,64 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>558000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>472000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>527000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>610000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>441000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>629000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>934000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1024000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1774000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1196000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>2095000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>2056000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>844000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>384000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>362000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>333000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>301000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8190000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8954000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4825000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3487000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2479000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>883000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-419000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7592000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8563000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10485000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11719000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9519000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10947000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11532000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E80" s="2">
         <v>44407</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44225</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43952</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43770</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43679</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43588</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43497</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43406</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43315</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43224</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43133</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43042</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42951</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42860</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5561000</v>
+      </c>
+      <c r="E81" s="3">
         <v>831000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>887000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1227000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>832000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1048000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>143000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>408000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>499000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3416000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>293000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-299000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-876000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-499000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-636000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-846000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-732000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3721000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1240000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1239000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1373000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1361000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1340000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1316000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1535000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1494000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1498000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1616000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1940000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1961000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1931000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1914000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2143000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2137000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2142000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2212000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7214000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1725000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2238000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5877000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2994000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3332000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-796000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3508000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1821000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3280000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>682000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2366000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>833000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2633000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1159000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3099000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1639000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1820000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>285000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,32 +5484,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2056000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-632000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-625000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-498000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-480000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-545000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-559000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5298,37 +5518,40 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q91" s="3">
         <v>-3000</v>
       </c>
       <c r="R91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2053000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-669000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-519000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-486000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1435000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-924000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-485000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-704000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-825000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-458000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3610000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-149000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-885000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>51000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5769,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5599,8 +5832,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1028000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3673000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4264000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>322000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-719000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-857000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>543000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-122000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-888000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-187000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>103000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>84000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-136000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-36000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>73000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-46000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-130000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-86000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>128000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>54000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8185000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2633000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>76000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3027000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>104000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-945000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2847000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>810000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-594000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>226000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-531000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-129000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1467000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2220000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2540000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-357000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>143000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
         <v>44498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44407</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44225</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43952</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43770</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43679</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43588</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43497</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43406</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43315</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43224</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43133</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43042</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42951</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42860</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>73205000</v>
+        <v>22194000</v>
       </c>
       <c r="E8" s="3">
+        <v>28394000</v>
+      </c>
+      <c r="F8" s="3">
         <v>26122000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24487000</v>
       </c>
-      <c r="G8" s="3">
-        <v>26112000</v>
-      </c>
       <c r="H8" s="3">
+        <v>18558000</v>
+      </c>
+      <c r="I8" s="3">
         <v>23482000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22733000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21897000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24032000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22844000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23370000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21908000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23841000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22482000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22942000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21356000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21963000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19556000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19521000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18000000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>56932000</v>
+        <v>24005000</v>
       </c>
       <c r="E9" s="3">
+        <v>20335000</v>
+      </c>
+      <c r="F9" s="3">
         <v>18137000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16829000</v>
       </c>
-      <c r="G9" s="3">
-        <v>17965000</v>
-      </c>
       <c r="H9" s="3">
+        <v>19688000</v>
+      </c>
+      <c r="I9" s="3">
         <v>16221000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15577000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15044000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16348000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15718000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16044000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15111000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16732000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16539000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16819000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15478000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16071000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14336000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14553000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13543000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16273000</v>
+        <v>-1811000</v>
       </c>
       <c r="E10" s="3">
+        <v>8059000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7985000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7658000</v>
       </c>
-      <c r="G10" s="3">
-        <v>8147000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-1130000</v>
+      </c>
+      <c r="I10" s="3">
         <v>7261000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7156000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6853000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7684000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7126000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7326000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6797000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7109000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5943000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6123000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5878000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5892000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5220000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4968000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4457000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,73 +976,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>3382000</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1468000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1323000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1391000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1360000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1259000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1265000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1325000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1262000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1229000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1176000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1202000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1175000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1087000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2157000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2118000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2178000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2248000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,37 +1110,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3960000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1143,23 +1163,26 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>42000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>31000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1246,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1271,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70155000</v>
+        <v>21631000</v>
       </c>
       <c r="E17" s="3">
+        <v>23077000</v>
+      </c>
+      <c r="F17" s="3">
         <v>24750000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23112000</v>
       </c>
-      <c r="G17" s="3">
-        <v>23935000</v>
-      </c>
       <c r="H17" s="3">
+        <v>17840000</v>
+      </c>
+      <c r="I17" s="3">
         <v>22015000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21597000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21195000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23315000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22008000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22851000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21358000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23510000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22838000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22955000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21509000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22032000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19966000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20186000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19272000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3050000</v>
+        <v>563000</v>
       </c>
       <c r="E18" s="3">
+        <v>5317000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1372000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1375000</v>
       </c>
-      <c r="G18" s="3">
-        <v>2177000</v>
-      </c>
       <c r="H18" s="3">
+        <v>718000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1467000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1136000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>702000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>717000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>836000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>519000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>550000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>331000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-356000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-153000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-69000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-410000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-665000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,333 +1433,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3403000</v>
+        <v>-1358000</v>
       </c>
       <c r="E20" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F20" s="3">
         <v>124000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>122000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-11000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="I20" s="3">
         <v>501000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>106000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>62000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>167000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>126000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>50000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-75000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>53000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10174000</v>
+        <v>35000</v>
       </c>
       <c r="E21" s="3">
-        <v>2736000</v>
+        <v>6509000</v>
       </c>
       <c r="F21" s="3">
         <v>2736000</v>
       </c>
       <c r="G21" s="3">
-        <v>3539000</v>
+        <v>2736000</v>
       </c>
       <c r="H21" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="I21" s="3">
         <v>3329000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2457000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2124000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2256000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2307000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2079000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2172000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2323000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1578000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2085000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1887000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1652000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1530000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>965000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E22" s="3">
         <v>482000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>483000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>510000</v>
       </c>
-      <c r="G22" s="3">
-        <v>534000</v>
-      </c>
       <c r="H22" s="3">
+        <v>197000</v>
+      </c>
+      <c r="I22" s="3">
         <v>566000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>617000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>672000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>630000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>654000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>692000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>699000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>658000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>612000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>622000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>596000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>604000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>607000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>598000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>597000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5971000</v>
+        <v>-862000</v>
       </c>
       <c r="E23" s="3">
+        <v>4785000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1013000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>987000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1632000</v>
-      </c>
       <c r="H23" s="3">
+        <v>308000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1402000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>136000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>91000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>159000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-111000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-143000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-275000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-995000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-623000</v>
       </c>
       <c r="S23" s="3">
         <v>-623000</v>
       </c>
       <c r="T23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000000</v>
+        <v>-98000</v>
       </c>
       <c r="E24" s="3">
+        <v>897000</v>
+      </c>
+      <c r="F24" s="3">
         <v>133000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>49000</v>
       </c>
-      <c r="G24" s="3">
-        <v>289000</v>
-      </c>
       <c r="H24" s="3">
+        <v>225000</v>
+      </c>
+      <c r="I24" s="3">
         <v>521000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-599000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-46000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-325000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-472000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-85000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-490000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-241000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-471000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-641000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1839,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4971000</v>
+        <v>-764000</v>
       </c>
       <c r="E26" s="3">
+        <v>3888000</v>
+      </c>
+      <c r="F26" s="3">
         <v>880000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>938000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1343000</v>
-      </c>
       <c r="H26" s="3">
+        <v>83000</v>
+      </c>
+      <c r="I26" s="3">
         <v>881000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1099000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>182000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>416000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>152000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4232000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>329000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-287000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-895000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-461000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-538000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-133000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-851000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-739000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4976000</v>
+        <v>-613000</v>
       </c>
       <c r="E27" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="F27" s="3">
         <v>831000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>887000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1227000</v>
-      </c>
       <c r="H27" s="3">
+        <v>226000</v>
+      </c>
+      <c r="I27" s="3">
         <v>832000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1048000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>143000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>408000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3416000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>293000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-299000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-876000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-499000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-636000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-846000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-732000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,13 +2043,16 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>585000</v>
+        <v>615000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -2002,8 +2063,8 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
+      <c r="H29" s="3">
+        <v>1001000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -2011,23 +2072,23 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>400000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2035,12 +2096,12 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>300000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2048,10 +2109,13 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2179,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2247,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3403000</v>
+        <v>1358000</v>
       </c>
       <c r="E32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-124000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-122000</v>
       </c>
-      <c r="G32" s="3">
-        <v>11000</v>
-      </c>
       <c r="H32" s="3">
+        <v>213000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-501000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-106000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-62000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-167000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-126000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-50000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>75000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-53000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5561000</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="F33" s="3">
         <v>831000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>887000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1227000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>832000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1048000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>143000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>408000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>499000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3416000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>293000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-299000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-876000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-499000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-636000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-846000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-732000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2451,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5561000</v>
+        <v>2000</v>
       </c>
       <c r="E35" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="F35" s="3">
         <v>831000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>887000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1227000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>832000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1048000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>143000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>408000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>499000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3416000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>293000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-299000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-876000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-499000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-636000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-846000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-732000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
         <v>44498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44407</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44225</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43952</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43770</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43679</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43588</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43497</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43406</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43315</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43224</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43133</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43042</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42951</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42860</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2620,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2646,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9477000</v>
+      </c>
+      <c r="E41" s="3">
         <v>22406000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11719000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14244000</v>
       </c>
-      <c r="G41" s="3">
-        <v>14201000</v>
-      </c>
       <c r="H41" s="3">
+        <v>9508000</v>
+      </c>
+      <c r="I41" s="3">
         <v>11304000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11221000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12229000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9302000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8555000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9193000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9040000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9676000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15152000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15312000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15324000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13942000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11706000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9213000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9554000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2667,486 +2757,510 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2504000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2402000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2187000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2008000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2015000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1620000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18001000</v>
+      </c>
+      <c r="E43" s="3">
         <v>19147000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17869000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15889000</v>
       </c>
-      <c r="G43" s="3">
-        <v>17943000</v>
-      </c>
       <c r="H43" s="3">
+        <v>15879000</v>
+      </c>
+      <c r="I43" s="3">
         <v>16249000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16498000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15549000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17379000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16036000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16059000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14794000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16769000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15247000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15341000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14523000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15640000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12832000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13189000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12089000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5898000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5442000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4223000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3828000</v>
       </c>
-      <c r="G44" s="3">
-        <v>3402000</v>
-      </c>
       <c r="H44" s="3">
+        <v>3403000</v>
+      </c>
+      <c r="I44" s="3">
         <v>3393000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3602000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3616000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3281000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3257000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3135000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3360000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3649000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3793000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3642000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2933000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2678000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2582000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2594000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2466000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11657000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10184000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9744000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8378000</v>
       </c>
-      <c r="G45" s="3">
-        <v>8021000</v>
-      </c>
       <c r="H45" s="3">
+        <v>14777000</v>
+      </c>
+      <c r="I45" s="3">
         <v>7668000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9769000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9537000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6906000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6924000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6929000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6461000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6044000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6445000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6326000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6049000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5881000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5397000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5194000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4655000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45033000</v>
+      </c>
+      <c r="E46" s="3">
         <v>57179000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43555000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42339000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43567000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>38614000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41090000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40931000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36868000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34772000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35316000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33655000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36138000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42959000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>43125000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41231000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40328000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34525000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>32205000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30384000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7361000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7097000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7205000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6931000</v>
       </c>
-      <c r="G47" s="3">
-        <v>6963000</v>
-      </c>
       <c r="H47" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="I47" s="3">
         <v>7029000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6451000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5684000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5712000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5303000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5118000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4913000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5229000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6918000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7679000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7742000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7887000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7590000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7221000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6513000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6286000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8878000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8705000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8645000</v>
       </c>
-      <c r="G48" s="3">
-        <v>8548000</v>
-      </c>
       <c r="H48" s="3">
+        <v>5954000</v>
+      </c>
+      <c r="I48" s="3">
         <v>8523000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8167000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7845000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7835000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7539000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7198000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7032000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5259000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5228000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5240000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5303000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5390000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5378000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5400000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5438000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27231000</v>
+      </c>
+      <c r="E49" s="3">
         <v>53020000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>53755000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54568000</v>
       </c>
-      <c r="G49" s="3">
-        <v>55258000</v>
-      </c>
       <c r="H49" s="3">
+        <v>29143000</v>
+      </c>
+      <c r="I49" s="3">
         <v>55900000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>56708000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>57075000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>59798000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60862000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>59717000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60963000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62359000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>63438000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64712000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>66393000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>68185000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>69176000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>70987000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>72213000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3324,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3392,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6824000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9503000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9458000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9269000</v>
       </c>
-      <c r="G52" s="3">
-        <v>9079000</v>
-      </c>
       <c r="H52" s="3">
+        <v>47157000</v>
+      </c>
+      <c r="I52" s="3">
         <v>8882000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8860000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8701000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8648000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8338000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8171000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3329000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2835000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2698000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2625000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2548000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2403000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1725000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1681000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1492000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3528,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92735000</v>
+      </c>
+      <c r="E54" s="3">
         <v>135677000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122678000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121752000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>123415000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118948000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121276000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>120236000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118861000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>116814000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115520000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109892000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>111820000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121241000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123381000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>123217000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>124193000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>118394000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>117494000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>116040000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3624,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3650,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27143000</v>
+      </c>
+      <c r="E57" s="3">
         <v>26772000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23029000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21545000</v>
       </c>
-      <c r="G57" s="3">
-        <v>21696000</v>
-      </c>
       <c r="H57" s="3">
+        <v>21572000</v>
+      </c>
+      <c r="I57" s="3">
         <v>19792000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19500000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18432000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20065000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19443000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19411000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18097000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19213000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19748000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20853000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18534000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18334000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16711000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16916000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15064000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5823000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16280000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6427000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8748000</v>
       </c>
-      <c r="G58" s="3">
-        <v>6362000</v>
-      </c>
       <c r="H58" s="3">
+        <v>6357000</v>
+      </c>
+      <c r="I58" s="3">
         <v>6536000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10345000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8375000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7737000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7664000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5949000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4884000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4320000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8150000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9144000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7133000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7873000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6235000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7686000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4842000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23253000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26650000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26027000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24563000</v>
       </c>
-      <c r="G59" s="3">
-        <v>26074000</v>
-      </c>
       <c r="H59" s="3">
+        <v>26203000</v>
+      </c>
+      <c r="I59" s="3">
         <v>23974000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24443000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23204000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24654000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21948000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21660000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20498000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21439000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19685000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19181000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18447000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19632000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17796000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17524000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16730000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56219000</v>
+      </c>
+      <c r="E60" s="3">
         <v>69702000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55483000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54856000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54132000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50302000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54288000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50011000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52456000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49055000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47020000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43479000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44972000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47583000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49178000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44114000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>45839000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40742000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>42126000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>36636000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21131000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31699000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37167000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37935000</v>
       </c>
-      <c r="G61" s="3">
-        <v>41622000</v>
-      </c>
       <c r="H61" s="3">
+        <v>32865000</v>
+      </c>
+      <c r="I61" s="3">
         <v>43325000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43608000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48353000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44319000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44727000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45973000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>48640000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49201000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>40507000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>40414000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44770000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>43998000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>45416000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>41374000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>44948000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16965000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20082000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20085000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19817000</v>
       </c>
-      <c r="G62" s="3">
-        <v>19636000</v>
-      </c>
       <c r="H62" s="3">
+        <v>31966000</v>
+      </c>
+      <c r="I62" s="3">
         <v>18855000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18212000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18191000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18302000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18221000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18408000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17660000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17393000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16631000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16522000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16509000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16487000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16648000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16725000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16765000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4124,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4192,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4260,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94420000</v>
+      </c>
+      <c r="E66" s="3">
         <v>126723000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117853000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117707000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>120464000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117538000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>121085000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>121409000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>119806000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117684000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>116945000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>114582000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116389000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>111554000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112762000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>111888000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>112090000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>108513000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>106214000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>104207000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4356,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4422,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4490,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4337,61 +4505,64 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>558000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>472000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>527000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>610000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>441000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>629000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>934000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1024000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1774000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1196000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>2095000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>2056000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>844000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>384000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>362000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>333000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>301000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4626,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8188000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8190000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4762,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4830,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4898,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1685000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8954000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4825000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3487000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2479000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>883000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-419000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7592000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8563000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10485000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11719000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9519000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10947000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11532000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5034,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
         <v>44498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44407</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44225</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43952</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43770</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43679</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43588</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43497</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43406</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43315</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43224</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43133</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43042</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42951</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42860</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5561000</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="F81" s="3">
         <v>831000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>887000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1227000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>832000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1048000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>143000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>408000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>499000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3416000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>293000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-299000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-876000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-499000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-636000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-846000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-732000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5203,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3721000</v>
+        <v>830000</v>
       </c>
       <c r="E83" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1240000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1239000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1373000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1361000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1340000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1316000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1535000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1494000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1498000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1616000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1940000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1961000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1931000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1914000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2143000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2137000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2142000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2212000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5337,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5405,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5473,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5541,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5609,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7214000</v>
+        <v>3093000</v>
       </c>
       <c r="E89" s="3">
+        <v>3251000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1725000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2238000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5877000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2994000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3332000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-796000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3508000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1821000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3280000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>682000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2366000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>833000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2633000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1159000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3099000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1639000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1820000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>285000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,35 +5705,36 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2056000</v>
+        <v>-740000</v>
       </c>
       <c r="E91" s="3">
+        <v>-799000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-632000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-625000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-498000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-480000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-545000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-559000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5521,37 +5742,40 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-3000</v>
       </c>
       <c r="R91" s="3">
         <v>-3000</v>
       </c>
       <c r="S91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5839,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5907,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2053000</v>
+        <v>-747000</v>
       </c>
       <c r="E94" s="3">
+        <v>3241000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-669000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-519000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-486000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1435000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-924000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-485000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-704000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-825000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-458000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3610000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-149000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-885000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>51000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,8 +6003,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5835,8 +6069,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6137,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6205,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6273,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1028000</v>
+        <v>-15581000</v>
       </c>
       <c r="E100" s="3">
+        <v>4283000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3673000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4264000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>322000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-719000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-857000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>543000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-122000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1600000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-888000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-187000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-54000</v>
+        <v>-52000</v>
       </c>
       <c r="E101" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>103000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-15000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>84000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-136000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-38000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-36000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>73000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-130000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-86000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>128000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>54000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8185000</v>
+        <v>-13287000</v>
       </c>
       <c r="E102" s="3">
+        <v>10742000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2633000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>76000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3027000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>104000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-945000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2847000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>810000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-594000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>226000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-531000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-40000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1467000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2220000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2540000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-357000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>143000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44407</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44225</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44134</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43952</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43770</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43679</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43588</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43497</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43406</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43315</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43224</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43133</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43042</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42951</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42860</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26116000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22194000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28394000</v>
       </c>
-      <c r="F8" s="3">
-        <v>26122000</v>
-      </c>
       <c r="G8" s="3">
-        <v>24487000</v>
+        <v>24191000</v>
       </c>
       <c r="H8" s="3">
+        <v>22590000</v>
+      </c>
+      <c r="I8" s="3">
         <v>18558000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23482000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22733000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21897000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24032000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22844000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23370000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21908000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23841000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22482000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22942000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21356000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21963000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19556000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19521000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18000000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20332000</v>
+      </c>
+      <c r="E9" s="3">
         <v>24005000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20335000</v>
       </c>
-      <c r="F9" s="3">
-        <v>18137000</v>
-      </c>
       <c r="G9" s="3">
-        <v>16829000</v>
+        <v>18716000</v>
       </c>
       <c r="H9" s="3">
+        <v>17326000</v>
+      </c>
+      <c r="I9" s="3">
         <v>19688000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16221000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15577000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15044000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16348000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15718000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16044000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15111000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16732000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16539000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16819000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15478000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16071000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14336000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14553000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13543000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5784000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1811000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8059000</v>
       </c>
-      <c r="F10" s="3">
-        <v>7985000</v>
-      </c>
       <c r="G10" s="3">
-        <v>7658000</v>
+        <v>5475000</v>
       </c>
       <c r="H10" s="3">
+        <v>5264000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1130000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7261000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7156000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6853000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7684000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7126000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7326000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6797000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7109000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5943000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6123000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5878000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5892000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5220000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4968000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4457000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,76 +990,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1416000</v>
       </c>
-      <c r="F12" s="3">
-        <v>1468000</v>
-      </c>
       <c r="G12" s="3">
-        <v>1323000</v>
+        <v>697000</v>
       </c>
       <c r="H12" s="3">
+        <v>619000</v>
+      </c>
+      <c r="I12" s="3">
         <v>1391000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1360000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1259000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1265000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1325000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1262000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1229000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1176000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1202000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1140000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1175000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1087000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2157000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2118000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2178000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2248000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1113,40 +1130,43 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-3960000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1166,23 +1186,26 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>42000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>31000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,8 +1272,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1272,144 +1298,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24566000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21631000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23077000</v>
       </c>
-      <c r="F17" s="3">
-        <v>24750000</v>
-      </c>
       <c r="G17" s="3">
-        <v>23112000</v>
+        <v>23174000</v>
       </c>
       <c r="H17" s="3">
+        <v>21603000</v>
+      </c>
+      <c r="I17" s="3">
         <v>17840000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22015000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21597000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21195000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23315000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22008000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22851000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21358000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23510000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22838000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22955000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21509000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22032000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19966000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20186000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19272000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="E18" s="3">
         <v>563000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5317000</v>
       </c>
-      <c r="F18" s="3">
-        <v>1372000</v>
-      </c>
       <c r="G18" s="3">
-        <v>1375000</v>
+        <v>1017000</v>
       </c>
       <c r="H18" s="3">
+        <v>987000</v>
+      </c>
+      <c r="I18" s="3">
         <v>718000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1467000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1136000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>702000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>717000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>836000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>519000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>550000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>331000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-356000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-153000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-69000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-410000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-665000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,348 +1467,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1358000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-50000</v>
       </c>
-      <c r="F20" s="3">
-        <v>124000</v>
-      </c>
       <c r="G20" s="3">
-        <v>122000</v>
+        <v>191000</v>
       </c>
       <c r="H20" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-213000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>501000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>106000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-23000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>62000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>52000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>167000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>126000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>50000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-75000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>53000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2204000</v>
+      </c>
+      <c r="E21" s="3">
         <v>35000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6509000</v>
       </c>
-      <c r="F21" s="3">
-        <v>2736000</v>
-      </c>
       <c r="G21" s="3">
-        <v>2736000</v>
+        <v>2448000</v>
       </c>
       <c r="H21" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1878000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3329000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2457000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2256000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2307000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2079000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2172000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2323000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1578000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2085000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1887000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1652000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1530000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>965000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E22" s="3">
         <v>67000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>482000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>483000</v>
       </c>
-      <c r="G22" s="3">
-        <v>510000</v>
-      </c>
       <c r="H22" s="3">
+        <v>433000</v>
+      </c>
+      <c r="I22" s="3">
         <v>197000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>566000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>617000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>672000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>630000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>654000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>692000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>699000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>658000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>612000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>622000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>596000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>604000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>607000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>598000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>597000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-862000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4785000</v>
       </c>
-      <c r="F23" s="3">
-        <v>1013000</v>
-      </c>
       <c r="G23" s="3">
-        <v>987000</v>
+        <v>725000</v>
       </c>
       <c r="H23" s="3">
+        <v>699000</v>
+      </c>
+      <c r="I23" s="3">
         <v>308000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1402000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>136000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>91000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>159000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-111000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-143000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-275000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-995000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-623000</v>
       </c>
       <c r="T23" s="3">
         <v>-623000</v>
       </c>
       <c r="U23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-98000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>897000</v>
       </c>
-      <c r="F24" s="3">
-        <v>133000</v>
-      </c>
       <c r="G24" s="3">
-        <v>49000</v>
+        <v>96000</v>
       </c>
       <c r="H24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="I24" s="3">
         <v>225000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>521000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-599000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-325000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-472000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-85000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-490000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-241000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-471000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-641000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1842,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-764000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3888000</v>
       </c>
-      <c r="F26" s="3">
-        <v>880000</v>
-      </c>
       <c r="G26" s="3">
-        <v>938000</v>
+        <v>629000</v>
       </c>
       <c r="H26" s="3">
+        <v>659000</v>
+      </c>
+      <c r="I26" s="3">
         <v>83000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>881000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1099000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>182000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>416000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>152000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4232000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>329000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-287000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-895000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-461000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-538000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-133000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-851000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-739000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-613000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3843000</v>
       </c>
-      <c r="F27" s="3">
-        <v>831000</v>
-      </c>
       <c r="G27" s="3">
-        <v>887000</v>
+        <v>631000</v>
       </c>
       <c r="H27" s="3">
+        <v>660000</v>
+      </c>
+      <c r="I27" s="3">
         <v>226000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>832000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1048000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>143000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>408000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3416000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>293000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-299000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-876000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-499000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-636000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-846000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-732000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2046,28 +2104,31 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>615000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+      <c r="G29" s="3">
+        <v>200000</v>
       </c>
       <c r="H29" s="3">
+        <v>227000</v>
+      </c>
+      <c r="I29" s="3">
         <v>1001000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -2075,23 +2136,23 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>400000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2099,12 +2160,12 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>300000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2112,10 +2173,13 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2182,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2250,144 +2317,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1358000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>50000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-124000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-122000</v>
+        <v>-191000</v>
       </c>
       <c r="H32" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="I32" s="3">
         <v>213000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-501000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-106000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>23000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-62000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-167000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-126000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-50000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>75000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-53000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3843000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>831000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>887000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1227000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>832000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1048000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>408000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>499000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3416000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>293000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-299000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-876000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-499000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-636000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-846000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-732000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2454,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3843000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>831000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>887000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1227000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>832000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1048000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>408000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>499000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3416000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>293000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-299000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-876000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-499000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-636000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-846000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-732000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44407</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44225</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44134</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43952</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43770</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43679</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43588</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43497</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43406</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43315</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43224</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43133</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43042</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42951</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42860</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2621,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2647,76 +2733,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6654000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9477000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22406000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11719000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14244000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9508000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11304000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11221000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12229000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9302000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8555000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9193000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9040000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9676000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15152000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15312000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15324000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13942000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11706000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9213000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9554000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2760,507 +2850,531 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>2322000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2504000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2402000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2187000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2008000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2015000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1620000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16633000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18001000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19147000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17869000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15889000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15879000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16249000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16498000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15549000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17379000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16036000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16059000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14794000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16769000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15247000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15341000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14523000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15640000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12832000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13189000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12089000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6277000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5898000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5442000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4223000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3828000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3403000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3393000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3602000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3616000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3281000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3257000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3135000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3360000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3649000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3793000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3642000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2933000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2678000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2582000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2594000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2466000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11812000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11657000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10184000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9744000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8378000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14777000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7668000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9769000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9537000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6906000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6924000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6929000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6461000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6044000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6445000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6326000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6049000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5881000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5397000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5194000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4655000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41376000</v>
+      </c>
+      <c r="E46" s="3">
         <v>45033000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>57179000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43555000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>42339000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43567000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>38614000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41090000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40931000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36868000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34772000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35316000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33655000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36138000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42959000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>43125000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41231000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>40328000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34525000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>32205000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30384000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7266000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7361000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7097000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7205000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6931000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6673000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7029000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6451000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5684000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5712000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5303000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5118000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4913000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5229000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6918000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7679000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7742000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7887000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7590000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7221000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6513000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6353000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6286000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8878000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8705000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8645000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5954000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8523000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8167000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7845000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7835000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7539000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7198000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7032000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5259000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5228000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5240000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5303000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5390000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5378000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5400000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5438000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26815000</v>
+      </c>
+      <c r="E49" s="3">
         <v>27231000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>53020000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>53755000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>54568000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29143000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>55900000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56708000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>57075000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>59798000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60862000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>59717000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60963000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62359000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>63438000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>64712000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>66393000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>68185000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>69176000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>70987000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>72213000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3327,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3395,76 +3512,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6596000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6824000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9503000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9458000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9269000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47157000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8882000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8860000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8701000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8648000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8338000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8171000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3329000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2835000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2698000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2625000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2548000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2403000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1725000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1681000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1492000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3531,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88406000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92735000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>135677000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122678000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121752000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123415000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118948000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121276000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>120236000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118861000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116814000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>115520000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109892000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>111820000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121241000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>123381000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>123217000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>124193000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>118394000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>117494000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>116040000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3625,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3651,416 +3781,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25585000</v>
+      </c>
+      <c r="E57" s="3">
         <v>27143000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26772000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23029000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21545000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21572000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19792000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19500000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18432000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20065000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19443000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19411000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18097000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19213000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19748000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20853000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18534000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18334000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16711000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16916000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15064000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5925000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5823000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16280000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6427000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8748000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6357000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6536000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10345000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8375000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7737000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7664000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5949000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4884000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4320000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8150000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9144000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7133000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7873000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6235000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7686000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4842000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21549000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23253000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26650000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26027000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24563000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26203000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23974000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24443000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23204000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24654000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21948000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21660000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20498000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21439000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19685000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19181000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18447000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19632000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17796000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17524000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16730000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53059000</v>
+      </c>
+      <c r="E60" s="3">
         <v>56219000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>69702000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55483000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54856000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54132000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50302000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>54288000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50011000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52456000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49055000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47020000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43479000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44972000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47583000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49178000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44114000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>45839000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>40742000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>42126000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>36636000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21197000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21131000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31699000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37167000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37935000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32865000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43325000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43608000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>48353000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44319000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44727000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45973000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>48640000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49201000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>40507000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>40414000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44770000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>43998000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>45416000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>41374000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>44948000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16505000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16965000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20082000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20085000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19817000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31966000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18855000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18212000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18191000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18302000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18221000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18408000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17660000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17393000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16631000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16522000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16509000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16487000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16648000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16725000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16765000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4127,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4195,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4263,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90868000</v>
+      </c>
+      <c r="E66" s="3">
         <v>94420000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>126723000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117853000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117707000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>120464000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117538000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>121085000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>121409000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>119806000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117684000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116945000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>114582000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>116389000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>111554000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>112762000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>111888000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112090000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>108513000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>106214000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>104207000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4357,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4425,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4493,8 +4658,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4508,61 +4676,64 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>558000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>472000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>527000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>610000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>441000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>629000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>934000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1024000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1774000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>2095000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>2056000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>844000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>384000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>362000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>333000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>301000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4629,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7369000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8188000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8190000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4765,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4833,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4901,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2462000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1685000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8954000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4825000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3487000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2479000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>883000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-419000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7592000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8563000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10485000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11719000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9519000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10947000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11532000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5037,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44407</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44225</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44134</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43952</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43770</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43679</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43588</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43497</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43406</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43315</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43224</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43133</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43042</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42951</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42860</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3843000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>831000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>887000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1227000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>832000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1048000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>408000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>499000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3416000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>293000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-299000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-876000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-499000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-636000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-846000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-732000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5204,76 +5402,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E83" s="3">
         <v>830000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1242000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1240000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1239000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1373000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1361000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1340000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1316000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1535000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1494000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1498000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1616000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1940000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1961000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1931000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1914000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2143000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2137000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2142000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2212000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5340,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5408,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5476,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5544,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5612,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3093000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3251000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1725000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2238000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5877000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2994000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3332000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-796000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3508000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1821000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3280000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>682000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2366000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>833000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2633000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1159000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3099000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1639000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1820000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>285000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5706,38 +5926,39 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-690000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-740000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-799000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-632000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-625000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-498000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-480000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-545000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-559000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5745,37 +5966,40 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-3000</v>
       </c>
       <c r="S91" s="3">
         <v>-3000</v>
       </c>
       <c r="T91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5842,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5910,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-720000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-747000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3241000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-669000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-519000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-486000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1435000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-924000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-485000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-704000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-825000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-458000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-149000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-885000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>51000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6004,13 +6237,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-248000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6072,8 +6306,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6140,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6208,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6276,208 +6519,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1706000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15581000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4283000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3673000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4264000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>322000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-719000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-857000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>543000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-122000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1600000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-888000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-187000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-52000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-33000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>103000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-15000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>84000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-136000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-38000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-36000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>73000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-46000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-130000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-86000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>128000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>54000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2806000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13287000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10742000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2633000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>76000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3027000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>104000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-945000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2847000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>810000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-594000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>226000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-531000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-129000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-40000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1467000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2220000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2540000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-357000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>143000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E7" s="2">
         <v>44680</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44589</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44407</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44225</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44134</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43952</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43770</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43679</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43588</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43497</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43406</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43315</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43224</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43133</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43042</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42951</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42860</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26425000</v>
+      </c>
+      <c r="E8" s="3">
         <v>26116000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22194000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28394000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24191000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22590000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18558000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23482000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22733000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21897000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24032000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22844000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23370000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21908000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23841000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22482000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22942000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21356000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21963000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19556000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19521000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18000000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20986000</v>
+      </c>
+      <c r="E9" s="3">
         <v>20332000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24005000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20335000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18716000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17326000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19688000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16221000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15577000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15044000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16348000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15718000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16044000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15111000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16732000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16539000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16819000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15478000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16071000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14336000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14553000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13543000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5439000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5784000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1811000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8059000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5475000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5264000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1130000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7261000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7156000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6853000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7684000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7126000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7326000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6797000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7109000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5943000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6123000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5878000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5892000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5220000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4968000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4457000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,79 +1003,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E12" s="3">
         <v>681000</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1416000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>697000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>619000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1391000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1360000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1259000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1265000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1325000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1262000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1229000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1176000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1202000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1140000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1175000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1087000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2157000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2118000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2178000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2248000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,43 +1149,46 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3960000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1189,23 +1208,26 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>42000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>31000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>25000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1275,8 +1297,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1324,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25155000</v>
+      </c>
+      <c r="E17" s="3">
         <v>24566000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21631000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23077000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23174000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21603000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17840000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22015000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21597000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21195000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23315000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22008000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22851000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21358000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23510000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22838000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22955000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21509000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22032000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19966000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20186000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19272000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1270000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1550000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>563000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5317000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1017000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>987000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>718000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1467000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1136000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>702000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>717000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>836000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>519000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>550000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>331000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-356000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-153000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-69000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-410000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-665000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,363 +1500,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-337000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-72000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1358000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-50000</v>
       </c>
-      <c r="G20" s="3">
-        <v>191000</v>
-      </c>
       <c r="H20" s="3">
+        <v>124000</v>
+      </c>
+      <c r="I20" s="3">
         <v>145000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-213000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>501000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>106000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>62000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>52000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>167000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>126000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>50000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-75000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>53000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>2204000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>35000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6509000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2448000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
         <v>2371000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1878000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3329000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2457000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2256000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2307000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2079000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2172000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2323000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1578000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2085000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1887000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1652000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1530000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>965000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E22" s="3">
         <v>265000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>67000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>482000</v>
       </c>
-      <c r="G22" s="3">
-        <v>483000</v>
-      </c>
       <c r="H22" s="3">
+        <v>416000</v>
+      </c>
+      <c r="I22" s="3">
         <v>433000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>197000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>566000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>617000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>672000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>630000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>654000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>692000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>699000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>658000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>612000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>622000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>596000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>604000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>607000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>598000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>597000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1213000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-862000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4785000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>725000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>699000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>308000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1402000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>136000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>91000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>159000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-111000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-275000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-995000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-623000</v>
       </c>
       <c r="U23" s="3">
         <v>-623000</v>
       </c>
       <c r="V23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E24" s="3">
         <v>144000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-98000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>897000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>96000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>225000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>521000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-599000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-325000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-472000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-85000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-490000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-241000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-471000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-641000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,150 +1942,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1069000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-764000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3888000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>629000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>659000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>881000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1099000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>182000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>416000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>152000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4232000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>329000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-287000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-895000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-461000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-538000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-133000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-851000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-739000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1072000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-613000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3843000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>631000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>660000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>226000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>832000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1048000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>143000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>408000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3416000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>293000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-299000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-876000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-499000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-636000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-846000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-732000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,8 +2164,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2116,22 +2176,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>615000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>200000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>227000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1001000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -2139,23 +2199,23 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>400000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2163,12 +2223,12 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>300000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2176,10 +2236,13 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2249,8 +2312,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2320,150 +2386,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E32" s="3">
         <v>72000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1358000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>50000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-191000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-145000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>213000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-501000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-106000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-62000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-52000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-167000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-126000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-50000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>75000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-53000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1072000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3843000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>831000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>887000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1227000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>832000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1048000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>143000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>408000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>499000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3416000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>293000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-299000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-876000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-499000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-636000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-846000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-732000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2533,155 +2608,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1072000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3843000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>831000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>887000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1227000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>832000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1048000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>143000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>408000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>499000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3416000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>293000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-299000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-876000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-499000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-636000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-846000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-732000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E38" s="2">
         <v>44680</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44589</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44407</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44225</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44134</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43952</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43770</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43679</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43588</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43497</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43406</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43315</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43224</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43133</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43042</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42951</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42860</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2707,8 +2791,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,79 +2819,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5507000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6654000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9477000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22406000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11719000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14244000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9508000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11304000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11221000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12229000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9302000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8555000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9193000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9040000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9676000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15152000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15312000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15324000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13942000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11706000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9213000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9554000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2853,528 +2942,552 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>2322000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2504000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2402000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2187000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2008000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2015000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1620000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18291000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16633000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18001000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19147000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17869000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15889000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15879000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16249000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16498000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15549000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17379000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16036000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16059000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14794000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16769000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15247000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15341000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14523000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15640000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12832000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>13189000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12089000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5883000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6277000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5898000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5442000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4223000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3828000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3403000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3393000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3602000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3616000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3281000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3257000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3135000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3360000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3649000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3793000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3642000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2933000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2678000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2582000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2594000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2466000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12581000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11812000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11657000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10184000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9744000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8378000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14777000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7668000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9769000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9537000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6906000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6924000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6929000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6461000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6044000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6445000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6326000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6049000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5881000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5397000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5194000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4655000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42262000</v>
+      </c>
+      <c r="E46" s="3">
         <v>41376000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>45033000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>57179000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43555000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42339000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43567000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38614000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41090000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40931000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36868000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34772000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35316000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33655000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36138000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42959000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43125000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>41231000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>40328000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34525000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>32205000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30384000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6970000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7266000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7361000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7097000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7205000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6931000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6673000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7029000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6451000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5684000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5712000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5303000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5118000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4913000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5229000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6918000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7679000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7742000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7887000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7590000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7221000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6513000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6556000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6353000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6286000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8878000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8705000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8645000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5954000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8523000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8167000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7845000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7835000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7539000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7198000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7032000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5259000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5228000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5240000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5303000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5390000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5378000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5400000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5438000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26477000</v>
+      </c>
+      <c r="E49" s="3">
         <v>26815000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27231000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>53020000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>53755000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>54568000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29143000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>55900000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56708000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>57075000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>59798000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60862000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>59717000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60963000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62359000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>63438000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>64712000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>66393000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>68185000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>69176000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>70987000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>72213000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3444,8 +3557,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,79 +3631,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6510000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6596000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6824000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9503000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9458000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9269000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>47157000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8882000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8860000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8701000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8648000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8338000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8171000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3329000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2835000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2698000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2625000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2548000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2403000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1725000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1681000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1492000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3657,79 +3779,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88775000</v>
+      </c>
+      <c r="E54" s="3">
         <v>88406000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92735000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>135677000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122678000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121752000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123415000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118948000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121276000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>120236000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118861000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116814000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115520000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109892000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>111820000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>121241000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>123381000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>123217000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>124193000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>118394000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>117494000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>116040000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3755,8 +3883,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3782,434 +3911,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25339000</v>
+      </c>
+      <c r="E57" s="3">
         <v>25585000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27143000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26772000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23029000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21545000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21572000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19792000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19500000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18432000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20065000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19443000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19411000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18097000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19213000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19748000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20853000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18534000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18334000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16711000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16916000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15064000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6647000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5925000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5823000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16280000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6427000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8748000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6357000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6536000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10345000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8375000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7737000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7664000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5949000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4884000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4320000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8150000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9144000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7133000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7873000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6235000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7686000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4842000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22803000</v>
+      </c>
+      <c r="E59" s="3">
         <v>21549000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23253000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26650000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26027000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24563000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26203000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23974000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24443000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23204000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24654000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21948000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21660000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20498000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21439000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19685000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19181000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18447000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19632000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17796000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17524000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16730000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54789000</v>
+      </c>
+      <c r="E60" s="3">
         <v>53059000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56219000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>69702000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55483000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54856000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54132000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50302000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54288000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50011000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52456000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49055000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47020000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43479000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44972000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47583000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49178000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44114000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>45839000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>40742000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>42126000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>36636000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20287000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21197000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21131000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31699000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37167000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37935000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32865000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43325000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43608000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>48353000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44319000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44727000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45973000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>48640000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49201000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>40507000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40414000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>44770000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>43998000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>45416000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>41374000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>44948000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16454000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16505000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16965000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20082000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20085000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19817000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>31966000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18855000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18212000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18191000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18302000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18221000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18408000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17660000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17393000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16631000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16522000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16509000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16487000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16648000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16725000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16765000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,8 +4427,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,8 +4501,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4421,79 +4575,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91635000</v>
+      </c>
+      <c r="E66" s="3">
         <v>90868000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94420000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>126723000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117853000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117707000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>120464000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117538000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>121085000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>121409000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>119806000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>117684000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116945000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>114582000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116389000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>111554000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>112762000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>111888000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>112090000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>108513000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>106214000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>104207000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,8 +4679,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4590,8 +4751,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4661,8 +4825,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4679,61 +4846,64 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>558000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>472000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>527000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>610000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>441000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>629000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>934000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1024000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1774000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1196000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>2095000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>2056000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>844000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>384000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>362000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>333000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>301000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4803,79 +4973,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7106000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7369000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8188000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8190000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,8 +5121,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5016,8 +5195,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5087,79 +5269,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2860000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2462000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1685000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8954000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4825000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3487000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2479000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>883000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-419000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7592000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8563000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10485000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11719000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9519000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10947000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11532000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,155 +5417,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E80" s="2">
         <v>44680</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44589</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44407</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44225</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44134</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43952</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43770</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43679</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43588</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43497</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43406</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43315</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43224</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43133</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43042</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42951</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42860</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1072000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3843000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>831000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>887000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1227000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>832000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1048000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>143000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>408000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>499000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3416000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>293000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-299000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-876000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-499000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-636000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-846000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-732000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5403,79 +5600,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
         <v>726000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>830000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1242000</v>
       </c>
-      <c r="G83" s="3">
-        <v>1240000</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="3">
         <v>1239000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1373000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1361000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1340000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1316000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1535000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1494000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1498000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1616000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1940000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1961000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1931000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1914000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2143000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2137000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2142000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2212000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5545,8 +5746,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5616,8 +5820,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5687,8 +5894,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5758,8 +5968,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5829,79 +6042,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3">
         <v>-269000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3093000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3251000</v>
       </c>
-      <c r="G89" s="3">
-        <v>1725000</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3">
         <v>2238000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5877000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2994000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3332000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-796000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3508000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1821000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3280000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>682000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2366000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>833000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2633000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1159000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3099000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1639000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1820000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>285000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5927,41 +6146,42 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3">
         <v>-690000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-740000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-799000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-632000</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3">
         <v>-625000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-498000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-480000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-545000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-559000</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5969,37 +6189,40 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-3000</v>
       </c>
       <c r="T91" s="3">
         <v>-3000</v>
       </c>
       <c r="U91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6069,8 +6292,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6140,79 +6366,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3">
         <v>-720000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-747000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3241000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-669000</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="3">
         <v>-519000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-486000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1435000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-924000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-485000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-704000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-825000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-458000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3610000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-59000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-149000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-885000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>51000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,17 +6470,18 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-248000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -6309,8 +6542,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6380,8 +6616,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6451,8 +6690,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6522,217 +6764,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1706000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15581000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4283000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-3673000</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4264000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>322000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-719000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-857000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>543000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-122000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-888000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-187000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3">
         <v>-111000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-52000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-33000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>103000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>84000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-136000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-26000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>73000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-46000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-130000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-86000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>128000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>54000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2806000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13287000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10742000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-2633000</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="3">
         <v>76000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3027000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>104000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-945000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2847000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>810000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-594000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>226000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-531000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-129000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-40000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1467000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2220000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2540000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-357000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>143000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E7" s="2">
         <v>44771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43952</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43770</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43679</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43588</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43497</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43406</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43315</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43224</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43133</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43042</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42951</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42860</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24721000</v>
+      </c>
+      <c r="E8" s="3">
         <v>26425000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26116000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22194000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>28394000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24191000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22590000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18558000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23482000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22733000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21897000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24032000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22844000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23370000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21908000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23841000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22482000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22942000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21356000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21963000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19556000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19521000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18000000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19014000</v>
+      </c>
+      <c r="E9" s="3">
         <v>20986000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20332000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24005000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20335000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18716000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17326000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19688000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16221000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15577000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15044000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16348000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15718000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16044000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15111000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16732000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16539000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16819000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15478000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16071000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14336000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14553000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13543000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5707000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5439000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5784000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1811000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8059000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5475000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5264000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1130000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7261000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7156000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6853000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7684000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7126000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7326000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6797000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7109000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5943000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6123000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5878000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5892000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5220000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4968000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4457000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,82 +1016,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>677000</v>
+      </c>
+      <c r="E12" s="3">
         <v>626000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>681000</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1416000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>697000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>619000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1391000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1360000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1259000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1265000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1325000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1262000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1229000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1176000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1202000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1140000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1175000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1087000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2157000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2118000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2178000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2248000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1152,46 +1168,49 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>1000000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>9000</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="H14" s="3">
         <v>-3960000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1211,23 +1230,26 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>42000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>31000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>25000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1322,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1325,156 +1350,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23959000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25155000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24566000</v>
       </c>
-      <c r="F17" s="3">
-        <v>21631000</v>
-      </c>
       <c r="G17" s="3">
+        <v>23203000</v>
+      </c>
+      <c r="H17" s="3">
         <v>23077000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23174000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21603000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17840000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22015000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21597000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21195000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23315000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22008000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22851000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21358000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23510000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22838000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22955000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21509000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22032000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19966000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20186000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19272000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1270000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1550000</v>
       </c>
-      <c r="F18" s="3">
-        <v>563000</v>
-      </c>
       <c r="G18" s="3">
+        <v>-1009000</v>
+      </c>
+      <c r="H18" s="3">
         <v>5317000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1017000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>987000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>718000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1467000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1136000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>702000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>717000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>836000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>519000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>550000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>331000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-356000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-153000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-69000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-410000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-665000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,378 +1533,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-337000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-72000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1358000</v>
-      </c>
       <c r="G20" s="3">
+        <v>214000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-50000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>124000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>145000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-213000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>501000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>106000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>62000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>52000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>167000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>126000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>50000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-75000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>53000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>1558000</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3">
-        <v>2204000</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
         <v>35000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6509000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I21" s="3">
+        <v>2381000</v>
+      </c>
+      <c r="J21" s="3">
         <v>2371000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1878000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3329000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2457000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2124000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2256000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2307000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2079000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2172000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2323000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1578000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2085000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1887000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1652000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1530000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>965000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E22" s="3">
         <v>298000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>265000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>67000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>482000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>416000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>433000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>197000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>566000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>617000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>672000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>630000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>654000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>692000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>699000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>658000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>612000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>622000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>596000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>604000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>607000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>598000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>597000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E23" s="3">
         <v>635000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1213000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-862000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4785000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>725000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>699000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>308000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1402000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>91000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>159000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-143000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-275000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-995000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-623000</v>
       </c>
       <c r="V23" s="3">
         <v>-623000</v>
       </c>
       <c r="W23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E24" s="3">
         <v>129000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>144000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-98000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>897000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>96000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>225000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>521000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-599000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-325000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-472000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-85000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-490000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-241000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-471000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-641000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1945,156 +1993,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E26" s="3">
         <v>506000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1069000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-764000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3888000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>629000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>659000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>83000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>881000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1099000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>182000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>416000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>152000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4232000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>329000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-287000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-895000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-461000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-538000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-133000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-851000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-739000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E27" s="3">
         <v>511000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1072000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-613000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3843000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>631000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>660000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>226000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>832000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1048000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>143000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>408000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>99000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3416000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>293000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-299000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-876000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-499000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-636000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-846000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-732000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2167,8 +2224,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2179,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>615000</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>200000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>227000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1001000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2202,23 +2262,23 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>400000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2226,12 +2286,12 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>300000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2239,10 +2299,13 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2315,8 +2378,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2389,156 +2455,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E32" s="3">
         <v>337000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>72000</v>
       </c>
-      <c r="F32" s="3">
-        <v>1358000</v>
-      </c>
       <c r="G32" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="H32" s="3">
         <v>50000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-124000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-145000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>213000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-501000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-106000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-52000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-167000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-126000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-50000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>75000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-53000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E33" s="3">
         <v>511000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1072000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3843000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>831000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>887000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1227000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>832000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1048000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>143000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>408000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>499000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3416000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>293000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-299000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-876000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-499000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-636000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-846000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-732000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2611,161 +2686,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E35" s="3">
         <v>511000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1072000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3843000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>831000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>887000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1227000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>832000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1048000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>143000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>408000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>499000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3416000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>293000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-299000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-876000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-499000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-636000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-846000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-732000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E38" s="2">
         <v>44771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43952</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43770</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43679</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43588</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43497</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43406</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43315</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43224</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43133</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43042</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42951</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42860</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2792,8 +2876,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2820,82 +2905,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4909000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5507000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6654000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9477000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22406000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11719000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14244000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9508000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11304000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11221000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12229000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9302000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8555000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9193000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9040000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9676000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15152000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15312000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15324000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13942000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11706000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9213000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9554000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2945,549 +3034,573 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>2322000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2504000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2402000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2187000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2008000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2015000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1620000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16346000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18291000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16633000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18001000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19147000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17869000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15889000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15879000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16249000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16498000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15549000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17379000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16036000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16059000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14794000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16769000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15247000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15341000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14523000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15640000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12832000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>13189000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12089000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6172000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5883000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6277000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5898000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5442000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4223000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3828000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3403000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3393000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3602000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3616000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3281000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3257000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3135000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3360000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3649000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3793000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3642000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2933000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2678000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2582000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2594000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2466000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11360000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12581000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11812000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11657000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10184000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9744000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8378000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14777000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7668000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9769000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9537000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6906000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6924000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6929000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6461000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6044000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6445000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6326000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6049000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5881000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5397000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5194000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4655000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38787000</v>
+      </c>
+      <c r="E46" s="3">
         <v>42262000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41376000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>45033000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>57179000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43555000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42339000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43567000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38614000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41090000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40931000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36868000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34772000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35316000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33655000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36138000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42959000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43125000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>41231000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>40328000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34525000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>32205000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30384000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7193000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6970000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7266000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7361000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7097000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7205000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6931000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6673000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7029000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6451000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5684000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5712000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5303000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5118000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4913000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5229000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6918000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7679000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7742000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7887000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7590000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7221000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>6513000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6574000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6556000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6353000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6286000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8878000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8705000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8645000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5954000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8523000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8167000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7845000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7835000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7539000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7198000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7032000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5259000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5228000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5240000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5303000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5390000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5378000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5400000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5438000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26094000</v>
+      </c>
+      <c r="E49" s="3">
         <v>26477000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26815000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27231000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>53020000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53755000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>54568000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29143000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55900000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56708000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>57075000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>59798000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60862000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>59717000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60963000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62359000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>63438000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>64712000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>66393000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>68185000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>69176000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>70987000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>72213000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3560,8 +3673,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3634,82 +3750,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6524000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6510000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6596000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6824000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9503000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9458000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9269000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>47157000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8882000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8860000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8701000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8648000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8338000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8171000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3329000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2835000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2698000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2625000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2548000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2403000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1725000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1681000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1492000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3782,82 +3904,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85172000</v>
+      </c>
+      <c r="E54" s="3">
         <v>88775000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88406000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92735000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>135677000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122678000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121752000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123415000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118948000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121276000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>120236000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118861000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116814000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115520000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>109892000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>111820000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>121241000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>123381000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>123217000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>124193000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>118394000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>117494000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>116040000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3884,8 +4012,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3912,452 +4041,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22507000</v>
+      </c>
+      <c r="E57" s="3">
         <v>25339000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25585000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27143000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26772000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23029000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21545000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21572000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19792000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19500000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18432000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20065000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19443000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19411000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18097000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19213000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19748000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>20853000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18534000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18334000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16711000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16916000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15064000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6767000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6647000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5925000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5823000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16280000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6427000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8748000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6357000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6536000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10345000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8375000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7737000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7664000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5949000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4884000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4320000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8150000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9144000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7133000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7873000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6235000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7686000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4842000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22733000</v>
+      </c>
+      <c r="E59" s="3">
         <v>22803000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21549000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23253000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26650000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26027000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24563000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26203000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23974000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24443000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23204000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24654000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21948000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21660000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20498000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21439000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19685000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19181000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18447000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19632000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17796000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17524000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16730000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52007000</v>
+      </c>
+      <c r="E60" s="3">
         <v>54789000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53059000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56219000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>69702000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55483000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54856000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>54132000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50302000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54288000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50011000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52456000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49055000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47020000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43479000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44972000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47583000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49178000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>44114000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>45839000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>40742000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>42126000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>36636000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20562000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20287000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21197000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21131000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31699000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37167000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37935000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32865000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43325000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43608000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>48353000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44319000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44727000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45973000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>48640000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>49201000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40507000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>40414000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>44770000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>43998000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>45416000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>41374000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>44948000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15971000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16454000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16505000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16965000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20082000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20085000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19817000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>31966000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18855000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18212000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18191000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18302000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18221000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18408000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17660000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17393000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16631000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16522000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16509000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16487000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16648000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16725000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16765000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4430,8 +4578,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4504,8 +4655,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4578,82 +4732,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>88641000</v>
+      </c>
+      <c r="E66" s="3">
         <v>91635000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90868000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94420000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>126723000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117853000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117707000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>120464000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117538000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>121085000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>121409000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>119806000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>117684000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>116945000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>114582000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>116389000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>111554000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112762000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>111888000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>112090000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>108513000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>106214000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>104207000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4680,8 +4840,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4754,8 +4915,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4828,8 +4992,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4849,61 +5016,64 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>558000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>472000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>527000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>610000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>441000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>629000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>934000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1024000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1774000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1196000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>2095000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>2056000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>844000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>384000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>362000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>333000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>301000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4976,82 +5146,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7102000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7106000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7369000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8188000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8190000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5124,8 +5300,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5198,8 +5377,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5272,82 +5454,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3469000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2860000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2462000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1685000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8954000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4825000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3487000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2479000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>883000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-419000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7592000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8563000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10485000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11719000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9519000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10947000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11532000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5420,161 +5608,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E80" s="2">
         <v>44771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43952</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43770</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43679</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43588</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43497</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43406</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43315</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43224</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43133</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43042</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42951</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42860</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E81" s="3">
         <v>511000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1072000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3843000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>831000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>887000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1227000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>832000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1048000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>143000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>408000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>499000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3416000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>293000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-299000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-876000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-499000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-636000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-846000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-732000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5601,82 +5798,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="3">
-        <v>726000</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3">
         <v>830000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1242000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I83" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="J83" s="3">
         <v>1239000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1373000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1361000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1340000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1316000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1535000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1494000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1498000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1616000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1940000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1961000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1931000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1914000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2143000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2137000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2142000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2212000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5749,8 +5950,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5823,8 +6027,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5897,8 +6104,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5971,8 +6181,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6045,82 +6258,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="3">
-        <v>-269000</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3">
         <v>3093000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3251000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I89" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="J89" s="3">
         <v>2238000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5877000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2994000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3332000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-796000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3508000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1821000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3280000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>682000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2366000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>833000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2633000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1159000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3099000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1639000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1820000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>285000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6147,44 +6366,45 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>-747000</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>-690000</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3">
         <v>-740000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-799000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I91" s="3">
+        <v>-632000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-625000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-498000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-480000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-545000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-559000</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6192,37 +6412,40 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-3000</v>
       </c>
       <c r="U91" s="3">
         <v>-3000</v>
       </c>
       <c r="V91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6295,8 +6518,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6369,82 +6595,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>-730000</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3">
-        <v>-720000</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3">
         <v>-747000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3241000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I94" s="3">
+        <v>-669000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-519000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-486000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1435000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-924000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-485000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-704000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-825000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-458000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3610000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-59000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-149000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-885000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>51000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6471,16 +6703,17 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-238000</v>
       </c>
       <c r="E96" s="3">
-        <v>-248000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6545,8 +6778,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6619,8 +6855,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6693,8 +6932,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6767,226 +7009,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>-386000</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="3">
-        <v>-1706000</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="3">
         <v>-15581000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4283000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I100" s="3">
+        <v>-3673000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4264000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>322000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-719000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-857000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>543000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-122000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1600000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-888000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-187000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="3">
-        <v>-111000</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3">
         <v>-52000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-33000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>103000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>84000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-136000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-38000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-36000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>73000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-46000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-130000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-86000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>128000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>54000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="3">
+        <v>-869000</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2806000</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="3">
         <v>-13287000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10742000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I102" s="3">
+        <v>-2633000</v>
+      </c>
+      <c r="J102" s="3">
         <v>76000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3027000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>104000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-945000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2847000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>810000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-594000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>226000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-531000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-129000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-40000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1467000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2220000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2540000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-357000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>143000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E7" s="2">
         <v>44862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44498</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44407</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44134</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43952</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43770</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43679</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43588</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43497</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43406</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43315</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43224</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43133</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43042</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42951</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42860</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25039000</v>
+      </c>
+      <c r="E8" s="3">
         <v>24721000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26425000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26116000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22194000</v>
       </c>
-      <c r="H8" s="3">
-        <v>28394000</v>
-      </c>
       <c r="I8" s="3">
+        <v>26424000</v>
+      </c>
+      <c r="J8" s="3">
         <v>24191000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22590000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18558000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23482000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22733000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21897000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24032000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22844000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23370000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21908000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23841000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22482000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22942000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21356000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21963000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19556000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19521000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>18000000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19283000</v>
+      </c>
+      <c r="E9" s="3">
         <v>19014000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20986000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20332000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24005000</v>
       </c>
-      <c r="H9" s="3">
-        <v>20335000</v>
-      </c>
       <c r="I9" s="3">
+        <v>20890000</v>
+      </c>
+      <c r="J9" s="3">
         <v>18716000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17326000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19688000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16221000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15577000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15044000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16348000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15718000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16044000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15111000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16732000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16539000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16819000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15478000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>16071000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14336000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14553000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13543000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5756000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5707000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5439000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5784000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1811000</v>
       </c>
-      <c r="H10" s="3">
-        <v>8059000</v>
-      </c>
       <c r="I10" s="3">
+        <v>5534000</v>
+      </c>
+      <c r="J10" s="3">
         <v>5475000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5264000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1130000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7261000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7156000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6853000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7684000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7126000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7326000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6797000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7109000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5943000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6123000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5878000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5892000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5220000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4968000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4457000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,85 +1029,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>739000</v>
+      </c>
+      <c r="E12" s="3">
         <v>677000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>626000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>681000</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
-        <v>1416000</v>
-      </c>
       <c r="I12" s="3">
+        <v>2066000</v>
+      </c>
+      <c r="J12" s="3">
         <v>697000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>619000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1391000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1360000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1259000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1265000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1325000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1262000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1229000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1176000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1202000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1140000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1175000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1087000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2157000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2118000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2178000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2248000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1171,49 +1187,52 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>1581000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3960000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1233,23 +1252,26 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3">
         <v>42000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>31000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>15000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>25000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,8 +1347,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1351,162 +1376,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23744000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23959000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25155000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24566000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23203000</v>
       </c>
-      <c r="H17" s="3">
-        <v>23077000</v>
-      </c>
       <c r="I17" s="3">
+        <v>21410000</v>
+      </c>
+      <c r="J17" s="3">
         <v>23174000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21603000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17840000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22015000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21597000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21195000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23315000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22008000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22851000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21358000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23510000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22838000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22955000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21509000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22032000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19966000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20186000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19272000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1295000</v>
+      </c>
+      <c r="E18" s="3">
         <v>762000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1270000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1550000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1009000</v>
       </c>
-      <c r="H18" s="3">
-        <v>5317000</v>
-      </c>
       <c r="I18" s="3">
+        <v>5014000</v>
+      </c>
+      <c r="J18" s="3">
         <v>1017000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>987000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>718000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1467000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1136000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>702000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>717000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>836000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>519000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>550000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>331000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-356000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-153000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-69000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-410000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-665000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1534,393 +1566,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-36000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-337000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-72000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>214000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-50000</v>
-      </c>
       <c r="I20" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="J20" s="3">
         <v>124000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>145000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-213000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>501000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>106000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>62000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>52000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-27000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>167000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>126000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>50000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-75000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>53000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2164000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1558000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
+      <c r="F21" s="3">
+        <v>1677000</v>
       </c>
       <c r="G21" s="3">
+        <v>2204000</v>
+      </c>
+      <c r="H21" s="3">
         <v>35000</v>
       </c>
-      <c r="H21" s="3">
-        <v>6509000</v>
-      </c>
       <c r="I21" s="3">
+        <v>6195000</v>
+      </c>
+      <c r="J21" s="3">
         <v>2381000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2371000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1878000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3329000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2457000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2124000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2256000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2307000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2079000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2172000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2323000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1578000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2085000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1887000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1652000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1530000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>965000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E22" s="3">
         <v>272000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>298000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>265000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>67000</v>
       </c>
-      <c r="H22" s="3">
-        <v>482000</v>
-      </c>
       <c r="I22" s="3">
+        <v>406000</v>
+      </c>
+      <c r="J22" s="3">
         <v>416000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>433000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>197000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>566000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>617000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>672000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>630000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>654000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>692000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>699000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>658000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>612000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>622000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>596000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>604000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>607000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>598000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>597000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E23" s="3">
         <v>454000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>635000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1213000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-862000</v>
       </c>
-      <c r="H23" s="3">
-        <v>4785000</v>
-      </c>
       <c r="I23" s="3">
+        <v>4547000</v>
+      </c>
+      <c r="J23" s="3">
         <v>725000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>699000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>308000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1402000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>136000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>91000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>159000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-111000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-143000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-275000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-995000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-623000</v>
       </c>
       <c r="W23" s="3">
         <v>-623000</v>
       </c>
       <c r="X23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E24" s="3">
         <v>213000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>129000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>144000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-98000</v>
       </c>
-      <c r="H24" s="3">
-        <v>897000</v>
-      </c>
       <c r="I24" s="3">
+        <v>864000</v>
+      </c>
+      <c r="J24" s="3">
         <v>96000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>225000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>521000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-599000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-325000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-472000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-85000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-490000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-241000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-471000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-641000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1996,162 +2044,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>606000</v>
+      </c>
+      <c r="E26" s="3">
         <v>241000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>506000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1069000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-764000</v>
       </c>
-      <c r="H26" s="3">
-        <v>3888000</v>
-      </c>
       <c r="I26" s="3">
+        <v>3683000</v>
+      </c>
+      <c r="J26" s="3">
         <v>629000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>659000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>881000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1099000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>182000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>416000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>152000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4232000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>329000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-287000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-895000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-461000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-538000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-133000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-851000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-739000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E27" s="3">
         <v>245000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>511000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1072000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-613000</v>
       </c>
-      <c r="H27" s="3">
-        <v>3843000</v>
-      </c>
       <c r="I27" s="3">
+        <v>3685000</v>
+      </c>
+      <c r="J27" s="3">
         <v>631000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>660000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>226000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>832000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1048000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>143000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>408000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3416000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>293000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-299000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-876000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-499000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-636000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-846000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-732000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2227,8 +2284,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2242,22 +2302,22 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>615000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I29" s="3">
+        <v>158000</v>
+      </c>
+      <c r="J29" s="3">
         <v>200000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>227000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1001000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2265,23 +2325,23 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>400000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2289,12 +2349,12 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
         <v>300000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
@@ -2302,10 +2362,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2381,8 +2444,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2458,162 +2524,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>36000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>337000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>72000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-214000</v>
       </c>
-      <c r="H32" s="3">
-        <v>50000</v>
-      </c>
       <c r="I32" s="3">
+        <v>61000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-124000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-145000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>213000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-501000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-106000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-62000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-52000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>27000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-167000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-126000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-50000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>75000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-53000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E33" s="3">
         <v>245000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>511000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1072000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3843000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>831000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>887000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1227000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>832000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1048000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>143000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>408000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>499000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3416000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>293000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-299000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-876000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-499000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-636000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-846000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-732000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2689,167 +2764,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E35" s="3">
         <v>245000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>511000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1072000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3843000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>831000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>887000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1227000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>832000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1048000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>143000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>408000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>499000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3416000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>293000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-299000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-876000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-499000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-636000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-846000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-732000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E38" s="2">
         <v>44862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44498</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44407</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44134</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43952</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43770</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43679</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43588</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43497</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43406</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43315</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43224</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43133</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43042</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42951</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42860</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2877,8 +2961,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2906,85 +2991,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8607000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4909000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5507000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6654000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9477000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22406000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11719000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14244000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9508000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11304000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11221000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12229000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9302000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8555000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9193000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9040000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9676000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15152000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15312000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15324000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13942000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11706000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9213000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9554000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3037,570 +3126,594 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>2322000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2504000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2402000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2187000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2008000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2015000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1620000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17763000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16346000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18291000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16633000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18001000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19147000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17869000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15889000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15879000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16249000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16498000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15549000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17379000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16036000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16059000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14794000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16769000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15247000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15341000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14523000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15640000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12832000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>13189000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>12089000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4776000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6172000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5883000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6277000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5898000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5442000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4223000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3828000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3403000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3393000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3602000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3616000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3281000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3257000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3135000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3360000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3649000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3793000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3642000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2933000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2678000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2582000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2594000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2466000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11205000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11360000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12581000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11812000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11657000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10184000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9744000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8378000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14777000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7668000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9769000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9537000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6906000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6924000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6929000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6461000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6044000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6445000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6326000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6049000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5881000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5397000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5194000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4655000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42351000</v>
+      </c>
+      <c r="E46" s="3">
         <v>38787000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42262000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41376000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45033000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>57179000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43555000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42339000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43567000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38614000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41090000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40931000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36868000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34772000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35316000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33655000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36138000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42959000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>43125000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>41231000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>40328000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34525000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>32205000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30384000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7156000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7193000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6970000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7266000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7361000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7097000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7205000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6931000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6673000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7029000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6451000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5684000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5712000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5303000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5118000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4913000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5229000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6918000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7679000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7742000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7887000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7590000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7221000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>6513000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6934000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6574000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6556000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6353000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6286000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8878000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8705000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8645000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5954000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8523000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8167000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7845000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7835000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7539000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7198000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7032000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5259000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5228000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5240000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5303000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5390000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5378000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5400000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5438000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26144000</v>
+      </c>
+      <c r="E49" s="3">
         <v>26094000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26477000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26815000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27231000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53020000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53755000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>54568000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29143000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55900000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56708000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>57075000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>59798000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60862000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>59717000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60963000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62359000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>63438000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>64712000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>66393000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>68185000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>69176000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>70987000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>72213000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3676,8 +3789,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3753,85 +3869,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7026000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6524000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6510000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6596000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6824000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9503000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9458000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9269000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47157000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8882000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8860000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8701000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8648000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8338000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8171000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3329000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2835000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2698000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2625000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2548000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2403000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1725000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1681000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1492000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3907,85 +4029,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89611000</v>
+      </c>
+      <c r="E54" s="3">
         <v>85172000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88775000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>88406000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92735000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>135677000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122678000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121752000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123415000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118948000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121276000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>120236000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118861000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116814000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>115520000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>109892000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>111820000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>121241000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>123381000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>123217000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>124193000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>118394000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>117494000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>116040000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4013,8 +4141,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4042,470 +4171,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18598000</v>
+      </c>
+      <c r="E57" s="3">
         <v>22507000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25339000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25585000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27143000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26772000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23029000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21545000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21572000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19792000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19500000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18432000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20065000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19443000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19411000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18097000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19213000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19748000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>20853000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18534000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18334000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16711000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>16916000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>15064000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6573000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6767000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6647000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5925000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5823000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16280000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6427000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8748000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6357000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6536000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10345000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8375000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7737000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7664000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5949000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4884000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4320000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8150000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9144000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7133000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7873000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6235000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7686000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4842000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26483000</v>
+      </c>
+      <c r="E59" s="3">
         <v>22733000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22803000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21549000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23253000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26650000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26027000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24563000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26203000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23974000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24443000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23204000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24654000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21948000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21660000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20498000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21439000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19685000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19181000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18447000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19632000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17796000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17524000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>16730000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51654000</v>
+      </c>
+      <c r="E60" s="3">
         <v>52007000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54789000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53059000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56219000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>69702000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55483000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>54856000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54132000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50302000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54288000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50011000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52456000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49055000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47020000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43479000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44972000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>47583000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>49178000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>44114000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>45839000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>40742000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>42126000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>36636000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23015000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20562000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20287000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21197000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21131000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31699000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37167000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37935000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32865000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43325000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43608000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>48353000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44319000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44727000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45973000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>48640000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>49201000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>40507000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>40414000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>44770000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>43998000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>45416000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>41374000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>44948000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17967000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15971000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16454000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16505000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16965000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20082000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20085000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19817000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31966000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18855000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18212000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18191000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18302000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18221000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18408000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17660000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17393000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16631000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16522000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16509000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16487000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16648000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16725000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16765000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4581,8 +4729,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4658,8 +4809,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4735,85 +4889,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>92733000</v>
+      </c>
+      <c r="E66" s="3">
         <v>88641000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91635000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>90868000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94420000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>126723000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117853000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117707000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>120464000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117538000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>121085000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>121409000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>119806000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>117684000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116945000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>114582000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>116389000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>111554000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>112762000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>111888000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>112090000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>108513000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>106214000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>104207000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4841,8 +5001,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4918,8 +5079,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4995,8 +5159,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5019,61 +5186,64 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>558000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>472000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>527000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>610000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>441000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>629000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>934000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1024000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1774000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1196000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>2095000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>2056000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>844000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>384000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>362000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>333000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>301000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5149,85 +5319,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6732000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7102000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7106000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7369000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8188000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8190000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5303,8 +5479,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5380,8 +5559,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5457,85 +5639,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3122000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3469000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2860000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2462000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1685000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8954000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4825000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3487000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2479000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>883000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-419000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7592000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8563000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10485000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11719000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9519000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10947000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11532000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5611,167 +5799,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E80" s="2">
         <v>44862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44498</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44407</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44134</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43952</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43770</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43679</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43588</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43497</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43406</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43315</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43224</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43133</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43042</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42951</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42860</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E81" s="3">
         <v>245000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>511000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1072000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3843000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>831000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>887000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1227000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>832000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1048000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>143000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>408000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>499000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3416000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>293000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-299000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-876000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-499000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-636000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-846000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-732000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5799,85 +5996,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E83" s="3">
         <v>832000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
+      <c r="F83" s="3">
+        <v>744000</v>
       </c>
       <c r="G83" s="3">
+        <v>726000</v>
+      </c>
+      <c r="H83" s="3">
         <v>830000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1242000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1240000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1239000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1373000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1361000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1340000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1316000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1535000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1494000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1498000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1616000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1940000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1961000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1931000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1914000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2143000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2137000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2142000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2212000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5953,8 +6154,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6030,8 +6234,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6107,8 +6314,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6184,8 +6394,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6261,85 +6474,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2714000</v>
+      </c>
+      <c r="E89" s="3">
         <v>396000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
+      <c r="F89" s="3">
+        <v>724000</v>
       </c>
       <c r="G89" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="H89" s="3">
         <v>3093000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3251000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1725000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2238000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5877000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2994000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3332000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-796000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3508000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3280000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>682000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2366000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>833000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2633000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1159000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3099000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1639000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1820000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>285000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6367,47 +6586,48 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-759000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-747000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>-807000</v>
       </c>
       <c r="G91" s="3">
+        <v>-690000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-740000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-799000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-632000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-622000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-625000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-498000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-480000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-545000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-559000</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6415,37 +6635,40 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-3000</v>
       </c>
       <c r="V91" s="3">
         <v>-3000</v>
       </c>
       <c r="W91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="X91" s="3">
         <v>-6000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6521,8 +6744,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6598,85 +6824,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-796000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-730000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
+      <c r="F94" s="3">
+        <v>-778000</v>
       </c>
       <c r="G94" s="3">
+        <v>-720000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-747000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3241000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-669000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-519000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-486000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1435000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-924000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-485000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-704000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-825000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-458000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3610000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-59000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-149000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-885000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>51000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6704,22 +6936,23 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-238000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-242000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-248000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6781,8 +7014,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6858,8 +7094,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6935,8 +7174,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7012,235 +7254,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-386000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
+      <c r="F100" s="3">
+        <v>-1046000</v>
       </c>
       <c r="G100" s="3">
+        <v>-1706000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-15581000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4283000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3673000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4264000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>322000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-719000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-857000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>543000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-122000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1600000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-888000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-187000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-149000</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
+      <c r="F101" s="3">
+        <v>-83000</v>
       </c>
       <c r="G101" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-52000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-33000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>103000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>84000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-136000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-26000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-36000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>73000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-46000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-130000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-86000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>128000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>54000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3670000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-869000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
+      <c r="F102" s="3">
+        <v>-1183000</v>
       </c>
       <c r="G102" s="3">
+        <v>-2806000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-13287000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10742000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2633000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>76000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3027000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>104000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-945000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2847000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>810000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-594000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>226000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-531000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-129000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-40000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1467000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2220000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2540000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-357000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>143000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,355 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E7" s="2">
         <v>44960</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43952</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43770</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43679</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43588</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43497</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43406</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43315</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43224</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43133</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43042</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42951</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42860</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20922000</v>
+      </c>
+      <c r="E8" s="3">
         <v>25039000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24721000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26425000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26116000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22194000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26424000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24191000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22590000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18558000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23482000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22733000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21897000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24032000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22844000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23370000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21908000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23841000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22482000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22942000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21356000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>21963000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19556000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19521000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>18000000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15904000</v>
+      </c>
+      <c r="E9" s="3">
         <v>19283000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19014000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20986000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20332000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24005000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20890000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18716000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17326000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19688000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16221000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15577000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15044000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16348000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15718000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16044000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15111000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16732000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16539000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16819000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15478000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>16071000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14336000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14553000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>13543000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5018000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5756000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5707000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5439000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5784000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1811000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5534000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5475000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5264000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1130000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7261000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7156000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6853000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7684000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7126000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7326000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6797000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7109000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5943000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6123000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5878000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5892000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5220000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4968000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4457000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,88 +1042,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E12" s="3">
         <v>739000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>677000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>626000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>681000</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2066000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>697000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>619000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1391000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1360000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1259000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1265000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1325000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1262000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1229000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1176000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1202000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1140000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1175000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1087000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2157000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2118000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2178000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2248000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1190,52 +1206,55 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>313000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>1581000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3960000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1255,23 +1274,26 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
         <v>42000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>31000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>15000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>25000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1372,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1377,168 +1402,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19853000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23744000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23959000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25155000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24566000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23203000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21410000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23174000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21603000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17840000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22015000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21597000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21195000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23315000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22008000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22851000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21358000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23510000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22838000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22955000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21509000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>22032000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19966000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>20186000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>19272000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1295000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>762000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1270000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1550000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1009000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5014000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1017000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>987000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>718000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1467000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1136000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>702000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>717000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>836000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>519000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>550000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>331000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-356000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-153000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-410000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-665000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1567,408 +1599,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E20" s="3">
         <v>15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-36000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-337000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-72000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>214000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-61000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>124000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>145000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-213000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>501000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>106000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-23000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>62000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>52000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-27000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>167000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>126000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>50000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-75000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>53000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>25000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2164000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1558000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1677000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2204000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6195000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2381000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2371000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1878000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3329000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2457000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2124000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2256000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2307000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2079000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2172000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2323000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1578000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2085000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1887000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1652000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1530000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>965000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E22" s="3">
         <v>387000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>272000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>298000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>265000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>67000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>406000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>416000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>433000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>197000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>566000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>617000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>672000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>630000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>654000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>692000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>699000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>658000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>612000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>622000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>596000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>604000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>607000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>598000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>597000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E23" s="3">
         <v>923000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>454000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>635000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1213000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-862000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4547000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>725000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>699000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>308000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1402000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>136000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>91000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>159000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-111000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-143000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-275000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-995000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-623000</v>
       </c>
       <c r="X23" s="3">
         <v>-623000</v>
       </c>
       <c r="Y23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E24" s="3">
         <v>317000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>213000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>129000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>144000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-98000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>864000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>96000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>225000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>521000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-599000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-46000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-325000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-472000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-85000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-490000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-241000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-471000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-641000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2047,168 +2095,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E26" s="3">
         <v>606000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>241000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>506000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1069000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-764000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3683000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>629000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>659000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>881000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1099000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>182000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>416000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>152000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4232000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>329000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-287000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-895000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-461000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-538000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-133000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-851000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-739000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E27" s="3">
         <v>614000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>245000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>511000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1072000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-613000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3685000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>631000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>660000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>226000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>832000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1048000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>143000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>408000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>99000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3416000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>293000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-299000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-876000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-499000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-636000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-846000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-732000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2287,13 +2344,16 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2305,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>615000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>158000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>200000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>227000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1001000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -2328,23 +2388,23 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>400000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2352,12 +2412,12 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>300000</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
@@ -2365,10 +2425,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2447,8 +2510,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2527,168 +2593,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>36000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>337000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>72000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-214000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>61000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-124000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-145000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>213000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-501000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-106000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>23000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-62000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-52000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>27000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-167000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-126000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-50000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>75000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-53000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E33" s="3">
         <v>614000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>245000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>511000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1072000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3843000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>831000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>887000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1227000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>832000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1048000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>143000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>408000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>499000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3416000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>293000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-299000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-876000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-499000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-636000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-846000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-732000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2767,173 +2842,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E35" s="3">
         <v>614000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>245000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>511000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1072000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3843000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>831000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>887000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1227000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>832000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1048000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>143000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>408000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>499000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3416000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>293000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-299000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-876000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-499000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-636000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-846000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-732000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E38" s="2">
         <v>44960</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43952</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43770</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43679</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43588</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43497</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43406</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43315</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43224</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43133</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43042</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42951</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42860</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2962,8 +3046,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2992,88 +3077,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7631000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8607000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4909000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5507000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6654000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9477000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22406000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11719000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14244000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9508000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11304000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11221000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12229000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9302000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8555000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9193000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9040000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9676000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15152000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15312000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15324000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13942000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11706000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9213000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9554000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3129,591 +3218,615 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>2322000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2504000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2402000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2187000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2008000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2015000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1620000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14412000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17763000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16346000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18291000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16633000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18001000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19147000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17869000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15889000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15879000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16249000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16498000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15549000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17379000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16036000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16059000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14794000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16769000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15247000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15341000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14523000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15640000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12832000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>13189000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>12089000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4016000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4776000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6172000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5883000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6277000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5898000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5442000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4223000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3828000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3403000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3393000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3602000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3616000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3281000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3257000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3135000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3360000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3649000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3793000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3642000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2933000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2678000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2582000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2594000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2466000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11333000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11205000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11360000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12581000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11812000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11657000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10184000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9744000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8378000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14777000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7668000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9769000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9537000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6906000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6924000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6929000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6461000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6044000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6445000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6326000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6049000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5881000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5397000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5194000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4655000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37392000</v>
+      </c>
+      <c r="E46" s="3">
         <v>42351000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38787000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42262000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41376000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45033000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>57179000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43555000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42339000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43567000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38614000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41090000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40931000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36868000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34772000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35316000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33655000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36138000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42959000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>43125000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>41231000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>40328000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>34525000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>32205000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30384000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6923000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7156000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7193000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6970000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7266000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7361000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7097000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7205000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6931000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6673000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7029000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6451000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5684000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5712000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5303000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5118000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4913000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5229000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6918000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7679000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7742000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7887000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7590000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7221000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>6513000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6995000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6934000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6574000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6556000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6353000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6286000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8878000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8705000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8645000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5954000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8523000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8167000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7845000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7835000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7539000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7198000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7032000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5259000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5228000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5240000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5303000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5390000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5378000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5400000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5438000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25930000</v>
+      </c>
+      <c r="E49" s="3">
         <v>26144000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26094000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26477000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26815000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27231000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53020000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53755000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54568000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29143000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55900000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56708000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>57075000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>59798000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60862000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>59717000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60963000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62359000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>63438000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>64712000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>66393000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>68185000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>69176000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>70987000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>72213000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3792,8 +3905,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3872,88 +3988,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6854000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7026000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6524000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6510000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6596000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6824000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9503000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9458000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9269000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47157000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8882000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8860000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8701000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8648000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8338000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8171000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3329000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2835000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2698000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2625000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2548000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2403000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1725000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1681000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1492000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4032,88 +4154,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84094000</v>
+      </c>
+      <c r="E54" s="3">
         <v>89611000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85172000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>88775000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>88406000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92735000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>135677000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>122678000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121752000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123415000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118948000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121276000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>120236000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118861000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116814000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>115520000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>109892000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>111820000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>121241000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>123381000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>123217000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>124193000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>118394000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>117494000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>116040000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4142,8 +4270,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4172,488 +4301,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17796000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18598000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22507000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25339000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25585000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27143000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26772000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23029000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21545000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21572000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19792000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19500000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18432000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20065000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19443000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19411000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18097000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19213000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19748000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>20853000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18534000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18334000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>16711000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>16916000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>15064000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5470000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6573000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6767000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6647000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5925000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5823000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16280000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6427000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8748000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6357000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6536000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10345000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8375000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7737000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7664000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5949000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4884000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4320000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8150000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9144000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7133000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7873000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6235000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7686000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4842000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23559000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26483000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22733000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22803000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21549000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23253000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26650000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26027000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24563000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26203000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23974000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24443000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23204000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24654000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21948000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21660000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20498000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21439000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19685000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19181000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18447000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19632000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17796000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17524000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>16730000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46825000</v>
+      </c>
+      <c r="E60" s="3">
         <v>51654000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>52007000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54789000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53059000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56219000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>69702000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55483000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54856000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54132000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50302000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54288000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50011000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52456000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49055000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47020000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43479000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44972000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>47583000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>49178000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>44114000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>45839000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>40742000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>42126000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>36636000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22962000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23015000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20562000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20287000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21197000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21131000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31699000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37167000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37935000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32865000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43325000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43608000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>48353000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44319000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44727000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>45973000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>48640000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>49201000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>40507000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>40414000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>44770000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>43998000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>45416000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>41374000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>44948000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17231000</v>
+      </c>
+      <c r="E62" s="3">
         <v>17967000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15971000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16454000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16505000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16965000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20082000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20085000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19817000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31966000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18855000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18212000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18191000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18302000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18221000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18408000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17660000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17393000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16631000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16522000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16509000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16487000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16648000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16725000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16765000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4732,8 +4880,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4812,8 +4963,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4892,88 +5046,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87117000</v>
+      </c>
+      <c r="E66" s="3">
         <v>92733000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>88641000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91635000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90868000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94420000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>126723000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117853000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117707000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>120464000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117538000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>121085000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>121409000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>119806000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>117684000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>116945000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>114582000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>116389000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>111554000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>112762000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>111888000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>112090000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>108513000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>106214000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>104207000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5002,8 +5162,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5082,8 +5243,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5162,8 +5326,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5189,61 +5356,64 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>558000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>472000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>527000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>610000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>441000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>629000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>934000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1024000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1774000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1196000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>2095000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>2056000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>844000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>384000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>362000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>333000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>301000</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5322,88 +5492,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6430000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6732000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7102000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7106000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7369000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8188000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8190000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5482,8 +5658,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5562,8 +5741,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5642,88 +5824,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3023000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3122000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3469000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2860000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2462000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1685000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8954000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4825000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3487000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2479000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>883000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-419000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7592000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8563000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10485000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11719000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9519000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10947000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11532000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5802,173 +5990,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E80" s="2">
         <v>44960</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43952</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43770</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43679</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43588</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43497</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43406</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43315</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43224</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43133</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43042</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42951</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42860</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E81" s="3">
         <v>614000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>245000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>511000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1072000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3843000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>831000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>887000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1227000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>832000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1048000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>143000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>408000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>499000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3416000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>293000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-299000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-876000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-499000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-636000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-846000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-732000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5997,88 +6194,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>809000</v>
+      </c>
+      <c r="E83" s="3">
         <v>854000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>832000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>744000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>726000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>830000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1242000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1240000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1239000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1373000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1361000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1340000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1316000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1494000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1498000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1616000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1940000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1961000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1931000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1914000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2143000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2137000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2142000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2212000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6157,8 +6358,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6237,8 +6441,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6317,8 +6524,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6397,8 +6607,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6477,88 +6690,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1777000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2714000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>396000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>724000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-269000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3093000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3251000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1725000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2238000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5877000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2994000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3332000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-796000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3508000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1821000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3280000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>682000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2366000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>833000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2633000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1159000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3099000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1639000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1820000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>285000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6587,50 +6806,51 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-701000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-759000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-747000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-807000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-690000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-740000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-799000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-622000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-625000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-498000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-480000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-545000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-559000</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -6638,37 +6858,40 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-3000</v>
       </c>
       <c r="W91" s="3">
         <v>-3000</v>
       </c>
       <c r="X91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6747,8 +6970,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6827,88 +7053,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-684000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-796000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-730000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-778000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-720000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-747000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3241000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-669000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-519000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-486000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1435000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-924000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-485000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-704000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-825000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-458000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3610000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-59000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-149000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-885000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-700000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>51000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6937,26 +7169,27 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-236000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-238000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-242000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-248000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -7017,8 +7250,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7097,8 +7333,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7177,8 +7416,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7257,244 +7499,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2002000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1513000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-386000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1706000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15581000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4283000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3673000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4264000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>322000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-719000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-857000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>543000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-122000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1600000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-888000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-187000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E101" s="3">
         <v>239000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-149000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-83000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-111000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-52000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-33000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>103000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>84000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-136000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-38000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-26000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-36000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>73000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-46000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-130000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-86000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>128000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>54000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-967000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3670000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-869000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1183000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2806000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13287000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10742000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2633000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>76000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3027000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>104000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-945000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2847000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>810000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-594000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>226000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-531000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-129000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-40000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1467000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2220000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2540000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-357000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>143000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>570000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DELL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>DELL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,367 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E7" s="2">
         <v>45051</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44960</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43952</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43770</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43679</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43588</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43497</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43406</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43315</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43224</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43133</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43042</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42951</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42860</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22934000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20922000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25039000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24721000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26425000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26116000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22194000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26424000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24191000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22590000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18558000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23482000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22733000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21897000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24032000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22844000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23370000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21908000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23841000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22482000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22942000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>21356000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>21963000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19556000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19521000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>18000000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>20074000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17547000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15904000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19283000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19014000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20986000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20332000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24005000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20890000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18716000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17326000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19688000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16221000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15577000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15044000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16348000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15718000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16044000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15111000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16732000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16539000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>16819000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15478000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>16071000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14336000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>14553000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>13543000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>15543000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5387000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5018000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5756000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5707000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5439000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5784000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1811000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5534000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5475000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5264000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1130000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7261000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7156000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6853000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7684000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7126000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7326000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6797000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7109000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5943000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6123000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5878000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5892000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5220000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4968000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4457000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,91 +1055,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E12" s="3">
         <v>688000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>739000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>677000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>626000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>681000</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2066000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>697000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>619000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1391000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1360000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1259000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1265000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1325000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1262000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1229000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1176000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1202000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1140000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1175000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1087000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2157000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2118000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2178000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2248000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1227000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1209,55 +1225,58 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>313000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>1581000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3960000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-338000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1277,23 +1296,26 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>42000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>31000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>15000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>25000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>654000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,8 +1397,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1403,174 +1428,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21769000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19853000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23744000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23959000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25155000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24566000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23203000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21410000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23174000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21603000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17840000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22015000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21597000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21195000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23315000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22008000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22851000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21358000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23510000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22838000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22955000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21509000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>22032000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19966000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>20186000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>19272000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>22079000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1069000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1295000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>762000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1270000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1550000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1009000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5014000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1017000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>987000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>718000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1467000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1136000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>702000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>717000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>836000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>519000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>550000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>331000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-356000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-153000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-69000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-410000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-665000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1272000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2005000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1600,423 +1632,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E20" s="3">
         <v>41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-36000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-337000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-72000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>214000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-61000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>124000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>145000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-213000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>501000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>106000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-23000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>62000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>52000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-27000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>167000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>126000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>50000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-75000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>53000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>25000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1897000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1919000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2164000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1558000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1677000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2204000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6195000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2381000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2371000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1878000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3329000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2457000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2124000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2256000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2307000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2079000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2172000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2323000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1578000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2085000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1887000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4367000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1652000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1530000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>965000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>282000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E22" s="3">
         <v>405000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>387000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>272000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>298000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>265000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>67000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>406000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>416000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>433000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>197000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>566000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>617000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>672000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>630000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>654000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>692000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>699000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>658000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>612000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>622000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>596000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>604000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>607000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>598000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>597000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>651000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E23" s="3">
         <v>705000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>923000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>454000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>635000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1213000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-862000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4547000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>725000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>699000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>308000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1402000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>136000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>91000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>159000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-111000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-143000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-275000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-995000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-468000</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-623000</v>
       </c>
       <c r="Y23" s="3">
         <v>-623000</v>
       </c>
       <c r="Z23" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-1092000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1210000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1844000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2410000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E24" s="3">
         <v>127000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>317000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>213000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>144000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-98000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>864000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>225000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>521000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-599000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-325000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4343000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-472000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-85000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-490000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-241000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-471000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-641000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-996000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,174 +2146,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E26" s="3">
         <v>578000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>606000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>241000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>506000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1069000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-764000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3683000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>629000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>659000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>881000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1099000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>182000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>416000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>152000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4232000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>329000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-287000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-895000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-461000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-538000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-133000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-851000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-739000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1203000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1414000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E27" s="3">
         <v>583000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>614000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>245000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>511000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1072000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-613000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3685000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>631000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>660000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>226000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>832000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1048000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>143000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>408000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>99000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3416000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>293000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-299000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-876000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-499000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-636000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-846000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-732000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1380000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2347,16 +2404,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2368,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>615000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>158000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>200000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>227000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1001000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2391,23 +2451,23 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>400000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2415,12 +2475,12 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
         <v>300000</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
@@ -2428,10 +2488,13 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>1144000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2513,8 +2576,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2596,174 +2662,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>36000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>337000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>72000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-214000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>61000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-124000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-145000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>213000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-501000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>23000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-62000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-52000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>27000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-167000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-126000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>75000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-53000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-246000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E33" s="3">
         <v>583000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>614000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>245000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>511000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1072000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3843000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>831000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>887000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1227000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>832000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1048000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>143000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>408000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>499000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3416000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>293000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-299000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-876000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-499000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-636000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-846000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-732000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2845,179 +2920,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E35" s="3">
         <v>583000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>614000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>245000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>511000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1072000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3843000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>831000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>887000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1227000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>832000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1048000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>143000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>408000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>499000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3416000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>293000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-299000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-876000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-499000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-636000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-846000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-732000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E38" s="2">
         <v>45051</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44960</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43952</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43770</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43679</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43588</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43497</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43406</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43315</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43224</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43133</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43042</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42951</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42860</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3047,8 +3131,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3078,91 +3163,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8364000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7631000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8607000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4909000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5507000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6654000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9477000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22406000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11719000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14244000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9508000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11304000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11221000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12229000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9302000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8555000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9193000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9040000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9676000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15152000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15312000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15324000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13942000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11706000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9213000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9554000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9474000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3221,612 +3310,636 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>2322000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2504000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2402000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2187000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2008000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2015000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1620000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1975000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15158000</v>
+      </c>
+      <c r="E43" s="3">
         <v>14412000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17763000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16346000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18291000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16633000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18001000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19147000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17869000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15889000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15879000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16249000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16498000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15549000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17379000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16036000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16059000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14794000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16769000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15247000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15341000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14523000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>15640000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>12832000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>13189000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>12089000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>12642000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3584000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4016000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4776000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6172000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5883000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6277000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5898000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5442000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4223000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3828000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3403000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3393000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3602000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3616000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3281000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3257000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3135000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3360000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3649000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3793000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3642000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2933000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2678000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2582000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2594000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2466000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2538000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11893000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11333000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11205000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11360000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12581000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11812000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11657000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10184000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9744000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8378000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14777000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7668000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9769000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9537000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6906000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6924000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6929000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6461000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6044000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6445000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6326000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6049000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5881000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5397000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5194000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4655000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4144000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38999000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37392000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42351000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38787000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>42262000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41376000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45033000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>57179000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43555000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42339000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43567000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38614000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41090000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40931000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36868000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34772000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35316000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33655000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36138000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>42959000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>43125000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>41231000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>40328000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>34525000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>32205000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>30384000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>30773000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7144000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6923000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7156000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7193000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6970000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7266000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7361000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7097000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7205000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6931000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6673000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7029000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6451000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5684000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5712000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5303000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5118000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4913000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5229000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6918000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7679000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7742000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7887000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7590000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7221000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>6513000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>6453000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6968000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6995000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6934000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6574000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6556000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6353000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6286000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8878000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8705000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8645000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5954000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8523000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8167000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7845000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7835000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7539000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7198000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7032000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5259000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5228000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5240000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5303000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5390000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5378000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5400000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5438000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5653000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25700000</v>
+      </c>
+      <c r="E49" s="3">
         <v>25930000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26144000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26094000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26477000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26815000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27231000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53020000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53755000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54568000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29143000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>55900000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>56708000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>57075000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>59798000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60862000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>59717000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60963000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62359000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>63438000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>64712000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>66393000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>68185000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>69176000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>70987000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>72213000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>73963000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3908,8 +4021,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3991,91 +4107,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6847000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6854000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7026000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6524000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6510000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6596000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6824000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9503000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9458000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9269000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>47157000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8882000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8860000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8701000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8648000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8338000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8171000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3329000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2835000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2698000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2625000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2548000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2403000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1725000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1681000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1492000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1364000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4157,91 +4279,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85658000</v>
+      </c>
+      <c r="E54" s="3">
         <v>84094000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89611000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85172000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>88775000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>88406000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92735000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>135677000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122678000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121752000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123415000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118948000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121276000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>120236000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118861000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>116814000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>115520000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>109892000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>111820000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>121241000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>123381000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>123217000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>124193000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>118394000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>117494000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>116040000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>118206000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4271,8 +4399,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4302,506 +4431,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19969000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17796000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18598000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22507000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25339000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25585000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27143000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26772000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23029000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21545000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21572000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19792000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19500000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18432000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20065000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19443000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19411000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18097000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19213000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19748000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>20853000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18534000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>18334000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>16711000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>16916000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>15064000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>14422000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6961000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5470000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6573000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6767000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6647000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5925000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5823000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16280000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6427000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8748000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6357000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6536000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10345000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8375000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7737000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7664000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5949000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4884000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4320000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8150000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9144000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7133000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7873000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6235000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7686000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4842000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6329000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24012000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23559000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26483000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22733000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22803000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21549000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23253000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26650000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26027000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24563000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26203000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23974000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24443000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23204000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24654000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21948000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21660000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20498000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21439000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19685000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19181000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18447000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19632000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17796000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17524000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>16730000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17384000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50942000</v>
+      </c>
+      <c r="E60" s="3">
         <v>46825000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51654000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>52007000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54789000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53059000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56219000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>69702000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55483000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54856000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54132000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50302000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54288000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50011000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>52456000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49055000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47020000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>43479000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>44972000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>47583000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>49178000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>44114000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>45839000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>40742000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>42126000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>36636000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>38135000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20177000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22962000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23015000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20562000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20287000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21197000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21131000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31699000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37167000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37935000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32865000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43325000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43608000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>48353000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44319000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44727000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>45973000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>48640000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>49201000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>40507000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>40414000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>44770000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>43998000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>45416000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>41374000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>44948000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>43061000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17216000</v>
+      </c>
+      <c r="E62" s="3">
         <v>17231000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17967000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15971000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16454000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16505000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16965000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20082000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20085000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19817000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31966000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18855000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18212000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18191000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18302000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18221000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18408000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17660000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17393000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16631000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16522000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16509000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16487000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16648000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16725000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16765000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>17770000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4883,8 +5031,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4966,8 +5117,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5049,91 +5203,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>88430000</v>
+      </c>
+      <c r="E66" s="3">
         <v>87117000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>92733000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>88641000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91635000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90868000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>94420000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>126723000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117853000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117707000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>120464000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>117538000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>121085000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>121409000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>119806000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>117684000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>116945000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>114582000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>116389000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>111554000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>112762000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>111888000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>112090000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>108513000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>106214000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>104207000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>104732000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5163,8 +5323,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5246,8 +5407,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5329,8 +5493,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5359,61 +5526,64 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>558000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>472000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>527000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>610000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>441000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>629000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>934000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1024000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1774000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1196000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>2095000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>2056000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>844000</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>384000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>362000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>333000</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>301000</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5495,91 +5665,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6249000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6430000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6732000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7102000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7106000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7369000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8188000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8190000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12033000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12864000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13751000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14978000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15810000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16858000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16891000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17299000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17775000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21053000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21349000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8813000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7937000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7438000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6860000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8742000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7805000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-6859000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-5609000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5661,8 +5837,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5744,8 +5923,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5827,91 +6009,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2772000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3023000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3122000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3469000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2860000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2462000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1685000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8954000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4825000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3487000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2479000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>883000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-419000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1614000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1574000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1804000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2449000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6464000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5765000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7592000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8563000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10485000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11719000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9519000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10947000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11532000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13243000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5993,179 +6181,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E80" s="2">
         <v>45051</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44960</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43952</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43770</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43679</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43588</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43497</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43406</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43315</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43224</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43133</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43042</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42951</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42860</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42769</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E81" s="3">
         <v>583000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>614000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>245000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>511000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1072000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3843000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>831000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>887000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1227000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>832000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1048000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>143000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>408000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>499000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3416000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>293000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-299000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-876000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-499000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-636000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-846000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-732000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-236000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6195,91 +6392,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E83" s="3">
         <v>809000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>854000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>832000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>744000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>726000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>830000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1242000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1240000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1239000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1373000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1361000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1340000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1316000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1535000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1494000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1498000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1616000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1940000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1961000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1931000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1914000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2143000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2137000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2142000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2212000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>2041000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6361,8 +6562,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6444,8 +6648,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6527,8 +6734,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6610,8 +6820,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6693,91 +6906,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3214000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1777000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2714000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>396000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>724000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-269000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3093000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3251000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1725000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2238000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5877000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2994000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3332000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-796000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3508000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1821000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3280000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>682000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2366000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>833000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2633000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1159000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3099000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1639000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1820000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>285000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>740000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6807,53 +7026,54 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-624000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-701000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-759000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-747000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-807000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-690000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-740000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-799000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-622000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-625000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-498000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-480000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-545000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-559000</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6861,37 +7081,40 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-3000</v>
       </c>
       <c r="X91" s="3">
         <v>-3000</v>
       </c>
       <c r="Y91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-20000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-282000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6973,8 +7196,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7056,91 +7282,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-605000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-684000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-796000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-730000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-778000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-720000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-747000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3241000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-669000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-519000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-486000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1435000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-924000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-485000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-704000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2699000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-825000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-458000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3610000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-59000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-149000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-885000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1341000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>51000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>6803000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7170,29 +7402,30 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-276000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-236000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-238000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-242000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-248000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -7253,8 +7486,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7336,8 +7572,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7419,8 +7658,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7502,253 +7744,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1827000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2002000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1513000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-386000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1046000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1706000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15581000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4283000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3673000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1638000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2467000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4310000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3437000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4264000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2004000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>322000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2203000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-719000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11485000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-857000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2530000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>543000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-122000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1600000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-888000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-187000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-6902000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-58000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>239000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-149000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-83000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-111000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-52000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-33000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>103000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>84000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-38000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-26000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-36000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>73000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-46000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-130000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-86000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>128000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>54000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-967000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3670000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-869000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1183000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2806000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13287000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10742000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2633000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>76000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3027000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>104000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-945000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2847000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>810000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-594000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>226000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-531000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5436000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-129000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-40000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1467000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2220000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2540000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-357000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>143000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>570000</v>
       </c>
     </row>
